--- a/BACKLOG e SPRINTS - ALPHA SYSTEM.xlsx
+++ b/BACKLOG e SPRINTS - ALPHA SYSTEM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipead-my.sharepoint.com/personal/giovane_barbosa_aluno_unip_br/Documents/PIM - 4º SEMESTRE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programação\Github\ALPHA-SYSTEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{DB76D715-402F-48E8-BD06-922EB30AF6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{579481AF-D04F-443B-8EF3-FB1A0A151A68}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A921C36-AA0C-483F-9F02-E68CC8C7DB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A9DDF479-73C7-4D6A-B80B-192F7ACF7E6F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="181">
   <si>
     <t>BACKLOG - ALPHA SYSTEM</t>
   </si>
@@ -252,9 +252,6 @@
     <t>Formulário de Cadastro da Empresa</t>
   </si>
   <si>
-    <t>EM ANDAMENTO</t>
-  </si>
-  <si>
     <t>Formulário de Cadastro de Funcionário</t>
   </si>
   <si>
@@ -583,9 +580,6 @@
   </si>
   <si>
     <t>Módulo de Administrador (Operador)</t>
-  </si>
-  <si>
-    <t>EM ABERTO</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1214,7 +1208,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -1282,7 +1275,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1312,210 +1304,204 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1535,10 +1521,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1839,10 +1821,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F68E82-F58E-46D4-B957-0A649B375855}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:H191"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59:F97"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1856,21 +1838,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
     </row>
     <row r="2" spans="1:6" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1894,20 +1876,20 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="122" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1916,7 +1898,7 @@
       <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -1924,188 +1906,188 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="80"/>
-      <c r="B6" s="96"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="96"/>
+      <c r="E6" s="122"/>
       <c r="F6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="80"/>
-      <c r="B7" s="96"/>
+      <c r="A7" s="106"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="96"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="80"/>
-      <c r="B8" s="96"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="96"/>
+      <c r="E8" s="122"/>
       <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="80"/>
-      <c r="B9" s="96"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="96"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="80"/>
-      <c r="B10" s="96"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="96"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="80"/>
-      <c r="B11" s="96"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="96"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="80"/>
-      <c r="B12" s="96"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="96"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="80"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="96"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="80"/>
-      <c r="B14" s="96"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="96"/>
+      <c r="E14" s="122"/>
       <c r="F14" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
-      <c r="B15" s="96"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="96"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
-      <c r="B16" s="96"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="96"/>
+      <c r="E16" s="122"/>
       <c r="F16" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="102"/>
-      <c r="B17" s="103"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="130"/>
       <c r="C17" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="103"/>
+      <c r="E17" s="130"/>
       <c r="F17" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="114"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="120" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -2114,7 +2096,7 @@
       <c r="D19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="99" t="s">
+      <c r="E19" s="121" t="s">
         <v>35</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -2122,169 +2104,169 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
       <c r="C20" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="96"/>
+      <c r="E20" s="122"/>
       <c r="F20" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
       <c r="C21" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="96"/>
+      <c r="E21" s="122"/>
       <c r="F21" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="96"/>
+      <c r="E22" s="122"/>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="106"/>
       <c r="C23" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="96"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
+      <c r="A24" s="106"/>
+      <c r="B24" s="106"/>
       <c r="C24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="96"/>
+      <c r="E24" s="122"/>
       <c r="F24" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="80"/>
-      <c r="B25" s="80"/>
+      <c r="A25" s="106"/>
+      <c r="B25" s="106"/>
       <c r="C25" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="96"/>
+      <c r="E25" s="122"/>
       <c r="F25" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="106"/>
       <c r="C26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="96"/>
+      <c r="E26" s="122"/>
       <c r="F26" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="80"/>
-      <c r="B27" s="80"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="106"/>
       <c r="C27" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="96"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
+      <c r="A28" s="106"/>
+      <c r="B28" s="106"/>
       <c r="C28" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="96"/>
+      <c r="E28" s="122"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="80"/>
-      <c r="B29" s="80"/>
+      <c r="A29" s="106"/>
+      <c r="B29" s="106"/>
       <c r="C29" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="96"/>
+      <c r="E29" s="122"/>
       <c r="F29" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="80"/>
-      <c r="B30" s="80"/>
+      <c r="A30" s="106"/>
+      <c r="B30" s="106"/>
       <c r="C30" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="96"/>
+      <c r="E30" s="122"/>
       <c r="F30" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="81"/>
-      <c r="B31" s="81"/>
+      <c r="A31" s="107"/>
+      <c r="B31" s="107"/>
       <c r="C31" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="97"/>
+      <c r="E31" s="123"/>
       <c r="F31" s="9" t="s">
         <v>13</v>
       </c>
@@ -2310,29 +2292,29 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="78"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="114"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="85" t="s">
+      <c r="A34" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="85" t="s">
+      <c r="B34" s="71" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="82" t="s">
+      <c r="E34" s="74" t="s">
         <v>57</v>
       </c>
       <c r="F34" s="9" t="s">
@@ -2340,117 +2322,117 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="82"/>
+      <c r="E35" s="74"/>
       <c r="F35" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="85"/>
-      <c r="B36" s="85"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="73" t="s">
+      <c r="D36" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="82"/>
+      <c r="E36" s="74"/>
       <c r="F36" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="85"/>
-      <c r="B37" s="85"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="73" t="s">
+      <c r="D37" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="82"/>
+      <c r="E37" s="74"/>
       <c r="F37" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="85"/>
-      <c r="B38" s="85"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="73" t="s">
+      <c r="D38" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="82"/>
+      <c r="E38" s="74"/>
       <c r="F38" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="85"/>
-      <c r="B39" s="85"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="71"/>
       <c r="C39" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="73" t="s">
+      <c r="D39" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="82"/>
+      <c r="E39" s="74"/>
       <c r="F39" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="85"/>
-      <c r="B40" s="85"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="73" t="s">
+      <c r="D40" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="82"/>
+      <c r="E40" s="74"/>
       <c r="F40" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="86"/>
-      <c r="B41" s="86"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="115"/>
       <c r="C41" s="16" t="s">
         <v>64</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="83"/>
+      <c r="E41" s="99"/>
       <c r="F41" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="116" t="s">
         <v>66</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="73" t="s">
+      <c r="D42" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="104" t="s">
+      <c r="E42" s="117" t="s">
         <v>68</v>
       </c>
       <c r="F42" s="9" t="s">
@@ -2458,1364 +2440,1352 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="85"/>
-      <c r="B43" s="85"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="71"/>
       <c r="C43" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="73" t="s">
+      <c r="D43" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="105"/>
+      <c r="E43" s="118"/>
       <c r="F43" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="85"/>
-      <c r="B44" s="85"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="71"/>
       <c r="C44" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="73" t="s">
+      <c r="D44" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="105"/>
-      <c r="F44" s="71" t="s">
+      <c r="E44" s="118"/>
+      <c r="F44" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="71"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="85"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="10" t="s">
+      <c r="D45" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="118"/>
+      <c r="F45" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="71"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="73" t="s">
+      <c r="D46" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="105"/>
-      <c r="F45" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="85"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="10" t="s">
+      <c r="E46" s="118"/>
+      <c r="F46" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="71"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="73" t="s">
+      <c r="D47" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="105"/>
-      <c r="F46" s="71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="85"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="10" t="s">
+      <c r="E47" s="118"/>
+      <c r="F47" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="71"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="105"/>
-      <c r="F47" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="85"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="118"/>
+      <c r="F48" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="71"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="73" t="s">
+      <c r="D49" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="105"/>
-      <c r="F48" s="71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="85"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="10" t="s">
+      <c r="E49" s="118"/>
+      <c r="F49" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="71"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="73" t="s">
+      <c r="D50" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="105"/>
-      <c r="F49" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="85"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="10" t="s">
+      <c r="E50" s="118"/>
+      <c r="F50" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="71"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="73" t="s">
+      <c r="D51" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="105"/>
-      <c r="F50" s="71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="85"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="10" t="s">
+      <c r="E51" s="118"/>
+      <c r="F51" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="71"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="73" t="s">
+      <c r="D52" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="118"/>
+      <c r="F52" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="71"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="105"/>
-      <c r="F51" s="71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="85"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="73" t="s">
+      <c r="E53" s="118"/>
+      <c r="F53" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="71"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="105"/>
-      <c r="F52" s="71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="85"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="105"/>
-      <c r="F53" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="85"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="10" t="s">
+      <c r="E54" s="118"/>
+      <c r="F54" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="115"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="D54" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="105"/>
-      <c r="F54" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="86"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="106"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="85" t="s">
+      <c r="A56" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="85" t="s">
+      <c r="C56" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="D56" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="90" t="s">
+      <c r="F56" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="72"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="79"/>
-      <c r="B57" s="79"/>
-      <c r="C57" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="82"/>
+      <c r="E57" s="74"/>
       <c r="F57" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="110" t="s">
+      <c r="A58" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="101"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="102"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="111"/>
-      <c r="C58" s="111"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="111"/>
-      <c r="F58" s="112"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="79" t="s">
+      <c r="B59" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="113" t="s">
+      <c r="C59" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="F59" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="106"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="108"/>
+      <c r="F60" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="106"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="108"/>
+      <c r="F61" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="107"/>
+      <c r="B62" s="105"/>
+      <c r="C62" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="109"/>
+      <c r="F62" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="23"/>
-      <c r="E59" s="116" t="s">
-        <v>91</v>
-      </c>
-      <c r="F59" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="80"/>
-      <c r="B60" s="114"/>
-      <c r="C60" s="27" t="s">
+      <c r="D63" s="28"/>
+      <c r="E63" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="82"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="116"/>
-      <c r="F60" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="80"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="81"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="28" t="s">
+      <c r="D64" s="30"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="82"/>
+      <c r="B65" s="82"/>
+      <c r="C65" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="30"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="82"/>
+      <c r="B66" s="82"/>
+      <c r="C66" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="30"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="82"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="30"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="82"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="30"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="82"/>
+      <c r="B69" s="82"/>
+      <c r="C69" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="30"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="82"/>
+      <c r="B70" s="82"/>
+      <c r="C70" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="30"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="82"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="30"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="82"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="30"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="82"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="30"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="82"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="30"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="82"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="30"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="83"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="36"/>
+      <c r="E76" s="86"/>
+      <c r="F76" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="113"/>
+      <c r="C77" s="113"/>
+      <c r="D77" s="113"/>
+      <c r="E77" s="113"/>
+      <c r="F77" s="114"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="117"/>
-      <c r="F62" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="80" t="s">
+      <c r="B78" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="B63" s="80" t="s">
+      <c r="C78" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="D78" s="21"/>
+      <c r="E78" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="118" t="s">
+      <c r="F78" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="106"/>
+      <c r="B79" s="106"/>
+      <c r="C79" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F63" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="80"/>
-      <c r="B64" s="80"/>
-      <c r="C64" s="10" t="s">
+      <c r="D79" s="21"/>
+      <c r="E79" s="110"/>
+      <c r="F79" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="106"/>
+      <c r="B80" s="106"/>
+      <c r="C80" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="118"/>
-      <c r="F64" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="80"/>
-      <c r="B65" s="80"/>
-      <c r="C65" s="10" t="s">
+      <c r="D80" s="21"/>
+      <c r="E80" s="110"/>
+      <c r="F80" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="106"/>
+      <c r="B81" s="106"/>
+      <c r="C81" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="118"/>
-      <c r="F65" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="80"/>
-      <c r="B66" s="80"/>
-      <c r="C66" s="10" t="s">
+      <c r="D81" s="21"/>
+      <c r="E81" s="110"/>
+      <c r="F81" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="106"/>
+      <c r="B82" s="106"/>
+      <c r="C82" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="118"/>
-      <c r="F66" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="80"/>
-      <c r="B67" s="80"/>
-      <c r="C67" s="10" t="s">
+      <c r="D82" s="21"/>
+      <c r="E82" s="110"/>
+      <c r="F82" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="106"/>
+      <c r="B83" s="106"/>
+      <c r="C83" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="118"/>
-      <c r="F67" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="80"/>
-      <c r="B68" s="80"/>
-      <c r="C68" s="10" t="s">
+      <c r="D83" s="21"/>
+      <c r="E83" s="110"/>
+      <c r="F83" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="106"/>
+      <c r="B84" s="106"/>
+      <c r="C84" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="118"/>
-      <c r="F68" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="80"/>
-      <c r="B69" s="80"/>
-      <c r="C69" s="10" t="s">
+      <c r="D84" s="21"/>
+      <c r="E84" s="110"/>
+      <c r="F84" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="106"/>
+      <c r="B85" s="106"/>
+      <c r="C85" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="118"/>
-      <c r="F69" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="80"/>
-      <c r="B70" s="80"/>
-      <c r="C70" s="10" t="s">
+      <c r="D85" s="21"/>
+      <c r="E85" s="110"/>
+      <c r="F85" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="106"/>
+      <c r="B86" s="106"/>
+      <c r="C86" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D70" s="21"/>
-      <c r="E70" s="118"/>
-      <c r="F70" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="80"/>
-      <c r="B71" s="80"/>
-      <c r="C71" s="10" t="s">
+      <c r="D86" s="21"/>
+      <c r="E86" s="110"/>
+      <c r="F86" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="106"/>
+      <c r="B87" s="106"/>
+      <c r="C87" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="118"/>
-      <c r="F71" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="80"/>
-      <c r="B72" s="80"/>
-      <c r="C72" s="10" t="s">
+      <c r="D87" s="21"/>
+      <c r="E87" s="110"/>
+      <c r="F87" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="106"/>
+      <c r="B88" s="106"/>
+      <c r="C88" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="118"/>
-      <c r="F72" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="80"/>
-      <c r="B73" s="80"/>
-      <c r="C73" s="10" t="s">
+      <c r="D88" s="21"/>
+      <c r="E88" s="110"/>
+      <c r="F88" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="106"/>
+      <c r="B89" s="106"/>
+      <c r="C89" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="118"/>
-      <c r="F73" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="80"/>
-      <c r="B74" s="80"/>
-      <c r="C74" s="10" t="s">
+      <c r="D89" s="21"/>
+      <c r="E89" s="110"/>
+      <c r="F89" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="106"/>
+      <c r="B90" s="106"/>
+      <c r="C90" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="118"/>
-      <c r="F74" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="80"/>
-      <c r="B75" s="80"/>
-      <c r="C75" s="10" t="s">
+      <c r="D90" s="21"/>
+      <c r="E90" s="110"/>
+      <c r="F90" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="107"/>
+      <c r="B91" s="107"/>
+      <c r="C91" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="118"/>
-      <c r="F75" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="81"/>
-      <c r="B76" s="81"/>
-      <c r="C76" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="119"/>
-      <c r="F76" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="124" t="s">
-        <v>112</v>
-      </c>
-      <c r="B77" s="124" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" s="27" t="s">
+      <c r="D91" s="25"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D77" s="29"/>
-      <c r="E77" s="127" t="s">
-        <v>68</v>
-      </c>
-      <c r="F77" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="125"/>
-      <c r="B78" s="125"/>
-      <c r="C78" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="128"/>
-      <c r="F78" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="125"/>
-      <c r="B79" s="125"/>
-      <c r="C79" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="128"/>
-      <c r="F79" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="125"/>
-      <c r="B80" s="125"/>
-      <c r="C80" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D80" s="31"/>
-      <c r="E80" s="128"/>
-      <c r="F80" s="71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="125"/>
-      <c r="B81" s="125"/>
-      <c r="C81" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D81" s="31"/>
-      <c r="E81" s="128"/>
-      <c r="F81" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="125"/>
-      <c r="B82" s="125"/>
-      <c r="C82" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D82" s="31"/>
-      <c r="E82" s="128"/>
-      <c r="F82" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="125"/>
-      <c r="B83" s="125"/>
-      <c r="C83" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="128"/>
-      <c r="F83" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="125"/>
-      <c r="B84" s="125"/>
-      <c r="C84" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D84" s="31"/>
-      <c r="E84" s="128"/>
-      <c r="F84" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="125"/>
-      <c r="B85" s="125"/>
-      <c r="C85" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D85" s="31"/>
-      <c r="E85" s="128"/>
-      <c r="F85" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="125"/>
-      <c r="B86" s="125"/>
-      <c r="C86" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D86" s="31"/>
-      <c r="E86" s="128"/>
-      <c r="F86" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="125"/>
-      <c r="B87" s="125"/>
-      <c r="C87" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="128"/>
-      <c r="F87" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="125"/>
-      <c r="B88" s="125"/>
-      <c r="C88" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="128"/>
-      <c r="F88" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-    </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="125"/>
-      <c r="B89" s="125"/>
-      <c r="C89" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D89" s="31"/>
-      <c r="E89" s="128"/>
-      <c r="F89" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-    </row>
-    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="126"/>
-      <c r="B90" s="126"/>
-      <c r="C90" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D90" s="37"/>
-      <c r="E90" s="129"/>
-      <c r="F90" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="136" t="s">
-        <v>114</v>
-      </c>
-      <c r="B91" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D91" s="52"/>
-      <c r="E91" s="130" t="s">
-        <v>116</v>
-      </c>
-      <c r="F91" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="137"/>
-      <c r="B92" s="137"/>
-      <c r="C92" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D92" s="53"/>
-      <c r="E92" s="131"/>
-      <c r="F92" s="71" t="s">
-        <v>182</v>
+      <c r="D92" s="54"/>
+      <c r="E92" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="F92" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="137"/>
-      <c r="B93" s="137"/>
-      <c r="C93" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D93" s="53"/>
-      <c r="E93" s="131"/>
-      <c r="F93" s="71" t="s">
-        <v>182</v>
+    <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="82"/>
+      <c r="B93" s="82"/>
+      <c r="C93" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D93" s="54"/>
+      <c r="E93" s="88"/>
+      <c r="F93" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="137"/>
-      <c r="B94" s="137"/>
-      <c r="C94" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D94" s="53"/>
-      <c r="E94" s="131"/>
-      <c r="F94" s="71" t="s">
-        <v>182</v>
+    <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="82"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="54"/>
+      <c r="E94" s="88"/>
+      <c r="F94" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="137"/>
-      <c r="B95" s="137"/>
-      <c r="C95" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D95" s="53"/>
-      <c r="E95" s="131"/>
-      <c r="F95" s="71" t="s">
-        <v>182</v>
+    <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="83"/>
+      <c r="B95" s="83"/>
+      <c r="C95" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95" s="55"/>
+      <c r="E95" s="89"/>
+      <c r="F95" s="39" t="s">
+        <v>91</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="138"/>
-      <c r="B96" s="138"/>
-      <c r="C96" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D96" s="54"/>
-      <c r="E96" s="131"/>
-      <c r="F96" s="71" t="s">
-        <v>182</v>
+    <row r="96" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="23"/>
+      <c r="E96" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="F96" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="139"/>
-      <c r="B97" s="139"/>
+      <c r="A97" s="115"/>
+      <c r="B97" s="115"/>
       <c r="C97" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D97" s="55"/>
-      <c r="E97" s="132"/>
-      <c r="F97" s="71" t="s">
-        <v>182</v>
+        <v>127</v>
+      </c>
+      <c r="D97" s="41"/>
+      <c r="E97" s="99"/>
+      <c r="F97" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="B98" s="77"/>
-      <c r="C98" s="77"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="78"/>
+    <row r="98" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98" s="116" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D98" s="23"/>
+      <c r="E98" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="F98" s="35" t="s">
+        <v>91</v>
+      </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
     </row>
-    <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="124" t="s">
-        <v>122</v>
-      </c>
-      <c r="B99" s="124" t="s">
-        <v>123</v>
-      </c>
-      <c r="C99" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D99" s="56"/>
-      <c r="E99" s="130" t="s">
-        <v>91</v>
-      </c>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="97"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D99" s="24"/>
+      <c r="E99" s="74"/>
       <c r="F99" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="125"/>
-      <c r="B100" s="125"/>
-      <c r="C100" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D100" s="56"/>
-      <c r="E100" s="131"/>
-      <c r="F100" s="32" t="s">
-        <v>92</v>
+      <c r="A100" s="98"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100" s="41"/>
+      <c r="E100" s="99"/>
+      <c r="F100" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="125"/>
-      <c r="B101" s="125"/>
-      <c r="C101" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D101" s="56"/>
-      <c r="E101" s="131"/>
-      <c r="F101" s="32" t="s">
-        <v>92</v>
+      <c r="A101" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D101" s="51"/>
+      <c r="E101" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="F101" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="126"/>
-      <c r="B102" s="126"/>
-      <c r="C102" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D102" s="57"/>
-      <c r="E102" s="132"/>
-      <c r="F102" s="40" t="s">
-        <v>92</v>
+      <c r="A102" s="94"/>
+      <c r="B102" s="94"/>
+      <c r="C102" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102" s="52"/>
+      <c r="E102" s="88"/>
+      <c r="F102" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="B103" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D103" s="24"/>
-      <c r="E103" s="90" t="s">
-        <v>127</v>
-      </c>
-      <c r="F103" s="36" t="s">
-        <v>92</v>
+    <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="94"/>
+      <c r="B103" s="94"/>
+      <c r="C103" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D103" s="52"/>
+      <c r="E103" s="88"/>
+      <c r="F103" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="81"/>
-      <c r="B104" s="81"/>
-      <c r="C104" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D104" s="42"/>
-      <c r="E104" s="83"/>
-      <c r="F104" s="34" t="s">
-        <v>92</v>
+      <c r="A104" s="94"/>
+      <c r="B104" s="94"/>
+      <c r="C104" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D104" s="52"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="107" t="s">
-        <v>129</v>
-      </c>
-      <c r="B105" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D105" s="24"/>
-      <c r="E105" s="90" t="s">
-        <v>132</v>
-      </c>
-      <c r="F105" s="36" t="s">
-        <v>92</v>
+    <row r="105" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="95"/>
+      <c r="B105" s="95"/>
+      <c r="C105" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D105" s="53"/>
+      <c r="E105" s="88"/>
+      <c r="F105" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="108"/>
-      <c r="B106" s="108"/>
-      <c r="C106" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D106" s="25"/>
-      <c r="E106" s="82"/>
-      <c r="F106" s="33" t="s">
-        <v>92</v>
-      </c>
+      <c r="A106" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="91"/>
+      <c r="C106" s="91"/>
+      <c r="D106" s="91"/>
+      <c r="E106" s="91"/>
+      <c r="F106" s="92"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="109"/>
-      <c r="B107" s="109"/>
+      <c r="A107" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="C107" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D107" s="42"/>
-      <c r="E107" s="83"/>
-      <c r="F107" s="34" t="s">
-        <v>92</v>
+        <v>136</v>
+      </c>
+      <c r="D107" s="41"/>
+      <c r="E107" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F107" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="133" t="s">
-        <v>135</v>
-      </c>
-      <c r="B108" s="134"/>
-      <c r="C108" s="134"/>
-      <c r="D108" s="134"/>
-      <c r="E108" s="134"/>
-      <c r="F108" s="135"/>
+    <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" s="116" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D108" s="23"/>
+      <c r="E108" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="F108" s="33" t="s">
+        <v>91</v>
+      </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
     </row>
     <row r="109" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D109" s="42"/>
-      <c r="E109" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="F109" s="34" t="s">
-        <v>92</v>
+      <c r="A109" s="131"/>
+      <c r="B109" s="115"/>
+      <c r="C109" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D109" s="41"/>
+      <c r="E109" s="133"/>
+      <c r="F109" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
     </row>
     <row r="110" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="B110" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D110" s="24"/>
-      <c r="E110" s="94" t="s">
-        <v>127</v>
-      </c>
-      <c r="F110" s="34" t="s">
-        <v>92</v>
-      </c>
+      <c r="A110" s="126" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" s="127"/>
+      <c r="C110" s="127"/>
+      <c r="D110" s="127"/>
+      <c r="E110" s="127"/>
+      <c r="F110" s="128"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="89"/>
-      <c r="B111" s="86"/>
-      <c r="C111" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="D111" s="42"/>
-      <c r="E111" s="95"/>
-      <c r="F111" s="34" t="s">
-        <v>92</v>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B111" s="116" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D111" s="47"/>
+      <c r="E111" s="122" t="s">
+        <v>145</v>
+      </c>
+      <c r="F111" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="B112" s="92"/>
-      <c r="C112" s="92"/>
-      <c r="D112" s="92"/>
-      <c r="E112" s="92"/>
-      <c r="F112" s="93"/>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="76"/>
+      <c r="B112" s="71"/>
+      <c r="C112" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D112" s="24"/>
+      <c r="E112" s="122"/>
+      <c r="F112" s="32" t="s">
+        <v>91</v>
+      </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="B113" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="C113" s="41" t="s">
-        <v>145</v>
+    <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="131"/>
+      <c r="B113" s="115"/>
+      <c r="C113" s="44" t="s">
+        <v>147</v>
       </c>
       <c r="D113" s="48"/>
-      <c r="E113" s="96" t="s">
-        <v>146</v>
-      </c>
-      <c r="F113" s="33" t="s">
-        <v>92</v>
+      <c r="E113" s="123"/>
+      <c r="F113" s="46" t="s">
+        <v>91</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="88"/>
-      <c r="B114" s="85"/>
-      <c r="C114" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D114" s="25"/>
-      <c r="E114" s="96"/>
-      <c r="F114" s="33" t="s">
-        <v>92</v>
+      <c r="A114" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B114" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D114" s="23"/>
+      <c r="E114" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="F114" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
     </row>
-    <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="89"/>
-      <c r="B115" s="86"/>
-      <c r="C115" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D115" s="49"/>
-      <c r="E115" s="97"/>
-      <c r="F115" s="47" t="s">
-        <v>92</v>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="106"/>
+      <c r="B115" s="106"/>
+      <c r="C115" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" s="24"/>
+      <c r="E115" s="74"/>
+      <c r="F115" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="B116" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>115</v>
+      <c r="A116" s="106"/>
+      <c r="B116" s="106"/>
+      <c r="C116" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="D116" s="24"/>
-      <c r="E116" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="F116" s="33" t="s">
-        <v>92</v>
+      <c r="E116" s="74"/>
+      <c r="F116" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="80"/>
-      <c r="B117" s="80"/>
+      <c r="A117" s="106"/>
+      <c r="B117" s="106"/>
       <c r="C117" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D117" s="25"/>
-      <c r="E117" s="82"/>
-      <c r="F117" s="33" t="s">
-        <v>92</v>
+        <v>118</v>
+      </c>
+      <c r="D117" s="24"/>
+      <c r="E117" s="74"/>
+      <c r="F117" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="80"/>
-      <c r="B118" s="80"/>
+      <c r="A118" s="106"/>
+      <c r="B118" s="106"/>
       <c r="C118" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D118" s="25"/>
-      <c r="E118" s="82"/>
-      <c r="F118" s="33" t="s">
-        <v>92</v>
+        <v>119</v>
+      </c>
+      <c r="D118" s="24"/>
+      <c r="E118" s="74"/>
+      <c r="F118" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="80"/>
-      <c r="B119" s="80"/>
+      <c r="A119" s="106"/>
+      <c r="B119" s="106"/>
       <c r="C119" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D119" s="25"/>
-      <c r="E119" s="82"/>
-      <c r="F119" s="33" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="D119" s="24"/>
+      <c r="E119" s="74"/>
+      <c r="F119" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="80"/>
-      <c r="B120" s="80"/>
+      <c r="A120" s="106"/>
+      <c r="B120" s="106"/>
       <c r="C120" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D120" s="25"/>
-      <c r="E120" s="82"/>
-      <c r="F120" s="33" t="s">
-        <v>92</v>
+        <v>86</v>
+      </c>
+      <c r="D120" s="24"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="80"/>
-      <c r="B121" s="80"/>
+      <c r="A121" s="106"/>
+      <c r="B121" s="106"/>
       <c r="C121" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D121" s="25"/>
-      <c r="E121" s="82"/>
-      <c r="F121" s="33" t="s">
-        <v>92</v>
+        <v>150</v>
+      </c>
+      <c r="D121" s="24"/>
+      <c r="E121" s="74"/>
+      <c r="F121" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="80"/>
-      <c r="B122" s="80"/>
+      <c r="A122" s="106"/>
+      <c r="B122" s="106"/>
       <c r="C122" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D122" s="25"/>
-      <c r="E122" s="82"/>
-      <c r="F122" s="33" t="s">
-        <v>92</v>
+        <v>151</v>
+      </c>
+      <c r="D122" s="24"/>
+      <c r="E122" s="74"/>
+      <c r="F122" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="80"/>
-      <c r="B123" s="80"/>
-      <c r="C123" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D123" s="25"/>
-      <c r="E123" s="82"/>
-      <c r="F123" s="33" t="s">
-        <v>92</v>
+    <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="107"/>
+      <c r="B123" s="107"/>
+      <c r="C123" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D123" s="41"/>
+      <c r="E123" s="99"/>
+      <c r="F123" s="45" t="s">
+        <v>91</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="80"/>
-      <c r="B124" s="80"/>
-      <c r="C124" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D124" s="25"/>
-      <c r="E124" s="82"/>
-      <c r="F124" s="33" t="s">
-        <v>92</v>
-      </c>
+    <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="112" t="s">
+        <v>153</v>
+      </c>
+      <c r="B124" s="113"/>
+      <c r="C124" s="113"/>
+      <c r="D124" s="113"/>
+      <c r="E124" s="113"/>
+      <c r="F124" s="114"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
     </row>
-    <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="81"/>
-      <c r="B125" s="81"/>
-      <c r="C125" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D125" s="42"/>
-      <c r="E125" s="83"/>
-      <c r="F125" s="46" t="s">
-        <v>92</v>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B125" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="C125" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D125" s="47"/>
+      <c r="E125" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="F125" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
     </row>
-    <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="76" t="s">
-        <v>154</v>
-      </c>
-      <c r="B126" s="77"/>
-      <c r="C126" s="77"/>
-      <c r="D126" s="77"/>
-      <c r="E126" s="77"/>
-      <c r="F126" s="78"/>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="76"/>
+      <c r="B126" s="71"/>
+      <c r="C126" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D126" s="24"/>
+      <c r="E126" s="74"/>
+      <c r="F126" s="32" t="s">
+        <v>91</v>
+      </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="B127" s="84" t="s">
-        <v>156</v>
-      </c>
+    <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="131"/>
+      <c r="B127" s="115"/>
       <c r="C127" s="50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D127" s="48"/>
-      <c r="E127" s="90" t="s">
-        <v>158</v>
-      </c>
-      <c r="F127" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="88"/>
-      <c r="B128" s="85"/>
-      <c r="C128" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D128" s="25"/>
-      <c r="E128" s="82"/>
+      <c r="E127" s="99"/>
+      <c r="F127" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D128" s="58"/>
+      <c r="E128" s="59" t="s">
+        <v>137</v>
+      </c>
       <c r="F128" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="89"/>
-      <c r="B129" s="86"/>
-      <c r="C129" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="D129" s="49"/>
-      <c r="E129" s="83"/>
-      <c r="F129" s="33" t="s">
-        <v>92</v>
-      </c>
+      <c r="A129" s="126" t="s">
+        <v>162</v>
+      </c>
+      <c r="B129" s="127"/>
+      <c r="C129" s="127"/>
+      <c r="D129" s="127"/>
+      <c r="E129" s="127"/>
+      <c r="F129" s="128"/>
     </row>
     <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="B130" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C130" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="D130" s="60"/>
-      <c r="E130" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="F130" s="34" t="s">
-        <v>92</v>
+      <c r="A130" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B130" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C130" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D130" s="58"/>
+      <c r="E130" s="134" t="s">
+        <v>166</v>
+      </c>
+      <c r="F130" s="32" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="91" t="s">
-        <v>163</v>
-      </c>
-      <c r="B131" s="92"/>
-      <c r="C131" s="92"/>
-      <c r="D131" s="92"/>
-      <c r="E131" s="92"/>
-      <c r="F131" s="93"/>
-    </row>
-    <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="B132" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="C132" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="D132" s="60"/>
-      <c r="E132" s="74" t="s">
+      <c r="A131" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="F132" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="44" t="s">
+      <c r="B131" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="B133" s="39" t="s">
+      <c r="C131" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="D131" s="58"/>
+      <c r="E131" s="135"/>
+      <c r="F131" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="D133" s="60"/>
-      <c r="E133" s="75"/>
-      <c r="F133" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="76" t="s">
+      <c r="B132" s="113"/>
+      <c r="C132" s="113"/>
+      <c r="D132" s="113"/>
+      <c r="E132" s="113"/>
+      <c r="F132" s="114"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="B134" s="77"/>
-      <c r="C134" s="77"/>
-      <c r="D134" s="77"/>
-      <c r="E134" s="77"/>
-      <c r="F134" s="78"/>
+      <c r="B133" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="C133" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="D133" s="64"/>
+      <c r="E133" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="F133" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="76"/>
+      <c r="B134" s="76"/>
+      <c r="C134" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="D134" s="63"/>
+      <c r="E134" s="79"/>
+      <c r="F134" s="32" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="B135" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="C135" s="67" t="s">
-        <v>174</v>
-      </c>
-      <c r="D135" s="66"/>
-      <c r="E135" s="121" t="s">
-        <v>175</v>
-      </c>
-      <c r="F135" s="33" t="s">
-        <v>92</v>
+      <c r="A135" s="77"/>
+      <c r="B135" s="77"/>
+      <c r="C135" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="D135" s="63"/>
+      <c r="E135" s="80"/>
+      <c r="F135" s="32" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="88"/>
-      <c r="B136" s="88"/>
-      <c r="C136" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="D136" s="65"/>
-      <c r="E136" s="122"/>
-      <c r="F136" s="33" t="s">
-        <v>92</v>
-      </c>
+      <c r="A136" s="43"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="120"/>
-      <c r="B137" s="120"/>
-      <c r="C137" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="D137" s="65"/>
-      <c r="E137" s="123"/>
-      <c r="F137" s="33" t="s">
-        <v>92</v>
-      </c>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="44"/>
-      <c r="B138" s="44"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
@@ -4021,53 +3991,25 @@
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="A77:A90"/>
-    <mergeCell ref="B77:B90"/>
-    <mergeCell ref="E77:E90"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="E99:E102"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="A91:A97"/>
-    <mergeCell ref="E91:E97"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="B63:B76"/>
-    <mergeCell ref="A63:A76"/>
-    <mergeCell ref="E63:E76"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E34:E41"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A42:A55"/>
-    <mergeCell ref="B42:B55"/>
-    <mergeCell ref="E42:E55"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="B114:B123"/>
+    <mergeCell ref="A114:A123"/>
+    <mergeCell ref="E114:E123"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="E125:E127"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="E111:E113"/>
     <mergeCell ref="A19:A31"/>
     <mergeCell ref="B19:B31"/>
     <mergeCell ref="E19:E31"/>
@@ -4077,23 +4019,43 @@
     <mergeCell ref="B5:B17"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="E5:E17"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="E113:E115"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="B116:B125"/>
-    <mergeCell ref="A116:A125"/>
-    <mergeCell ref="E116:E125"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E34:E41"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="B42:B55"/>
+    <mergeCell ref="E42:E55"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="B78:B91"/>
+    <mergeCell ref="A78:A91"/>
+    <mergeCell ref="E78:E91"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="E133:E135"/>
+    <mergeCell ref="A63:A76"/>
+    <mergeCell ref="B63:B76"/>
+    <mergeCell ref="E63:E76"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="E101:E105"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4111,930 +4073,924 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="72" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="69" customWidth="1"/>
     <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="126.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="B1" s="140" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" s="140"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="122" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="72"/>
+      <c r="D2" s="69"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="96"/>
+      <c r="B3" s="122"/>
       <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="72"/>
+      <c r="D3" s="69"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="96"/>
+      <c r="B4" s="122"/>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="69"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="96"/>
+      <c r="B5" s="122"/>
       <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="72"/>
+      <c r="D5" s="69"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="96"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="69"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="96"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="72"/>
+      <c r="D7" s="69"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="96"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="72"/>
+      <c r="D8" s="69"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="96"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="72"/>
+      <c r="D9" s="69"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="96"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="72"/>
+      <c r="D10" s="69"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="96"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="72"/>
+      <c r="D11" s="69"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="96"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="72"/>
+      <c r="D12" s="69"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="96"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="72"/>
+      <c r="D13" s="69"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="96"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="72"/>
+      <c r="D14" s="69"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="106" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="72"/>
+      <c r="D15" s="69"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="80"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="72"/>
+      <c r="D16" s="69"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="80"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="72"/>
+      <c r="D17" s="69"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="80"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="72"/>
+      <c r="D18" s="69"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="80"/>
+      <c r="B19" s="106"/>
       <c r="C19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="72"/>
+      <c r="D19" s="69"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="80"/>
+      <c r="B20" s="106"/>
       <c r="C20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="72"/>
+      <c r="D20" s="69"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="80"/>
+      <c r="B21" s="106"/>
       <c r="C21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="72"/>
+      <c r="D21" s="69"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="80"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="72"/>
+      <c r="D22" s="69"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="80"/>
+      <c r="B23" s="106"/>
       <c r="C23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="72"/>
+      <c r="D23" s="69"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="80"/>
+      <c r="B24" s="106"/>
       <c r="C24" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="72"/>
+      <c r="D24" s="69"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="80"/>
+      <c r="B25" s="106"/>
       <c r="C25" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="72"/>
+      <c r="D25" s="69"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="80"/>
+      <c r="B26" s="106"/>
       <c r="C26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="72"/>
+      <c r="D26" s="69"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="80"/>
+      <c r="B27" s="106"/>
       <c r="C27" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="72"/>
+      <c r="D27" s="69"/>
     </row>
     <row r="28" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="68" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="72"/>
+      <c r="D28" s="69"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="106" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="72"/>
+      <c r="D29" s="69"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="80"/>
+      <c r="B30" s="106"/>
       <c r="C30" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="72"/>
+      <c r="D30" s="69"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="80"/>
+      <c r="B31" s="106"/>
       <c r="C31" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="69"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="106"/>
+      <c r="C32" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="72"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="80"/>
-      <c r="C32" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D32" s="72"/>
+      <c r="D32" s="69"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="80"/>
+      <c r="B33" s="106"/>
       <c r="C33" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="72"/>
+      <c r="D33" s="69"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="80"/>
+      <c r="B34" s="106"/>
       <c r="C34" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="72"/>
+        <v>180</v>
+      </c>
+      <c r="D34" s="69"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="80"/>
+      <c r="B35" s="106"/>
       <c r="C35" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="72"/>
+      <c r="D35" s="69"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="80"/>
+      <c r="B36" s="106"/>
       <c r="C36" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="72"/>
+      <c r="D36" s="69"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="80"/>
+      <c r="B37" s="106"/>
       <c r="C37" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="72"/>
+      <c r="D37" s="69"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="80" t="s">
+      <c r="B38" s="106" t="s">
         <v>66</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="72"/>
+      <c r="D38" s="69"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="80"/>
+      <c r="B39" s="106"/>
       <c r="C39" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="72"/>
+      <c r="D39" s="69"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="80"/>
+      <c r="B40" s="106"/>
       <c r="C40" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="72"/>
+      <c r="D40" s="69"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="80"/>
+      <c r="B41" s="106"/>
       <c r="C41" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="69"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="106"/>
+      <c r="C42" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="72"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="80"/>
-      <c r="C42" s="10" t="s">
+      <c r="D42" s="69"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="106"/>
+      <c r="C43" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="72"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="80"/>
-      <c r="C43" s="10" t="s">
+      <c r="D43" s="69"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="106"/>
+      <c r="C44" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="72"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="80"/>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="69"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="106"/>
+      <c r="C45" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="72"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="80"/>
-      <c r="C45" s="10" t="s">
+      <c r="D45" s="69"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="106"/>
+      <c r="C46" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="72"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="80"/>
-      <c r="C46" s="10" t="s">
+      <c r="D46" s="69"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="106"/>
+      <c r="C47" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="72"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="80"/>
-      <c r="C47" s="10" t="s">
+      <c r="D47" s="69"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="106"/>
+      <c r="C48" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="72"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="80"/>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="69"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="106"/>
+      <c r="C49" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="72"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="80"/>
-      <c r="C49" s="10" t="s">
+      <c r="D49" s="69"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="106"/>
+      <c r="C50" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="72"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="80"/>
-      <c r="C50" s="10" t="s">
+      <c r="D50" s="69"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="106"/>
+      <c r="C51" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="72"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="80"/>
-      <c r="C51" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="72"/>
+      <c r="D51" s="69"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="114" t="s">
-        <v>90</v>
+      <c r="B52" s="104" t="s">
+        <v>89</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="72"/>
+      <c r="D52" s="69"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="114"/>
+      <c r="B53" s="104"/>
       <c r="C53" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="72"/>
+      <c r="D53" s="69"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="114"/>
+      <c r="B54" s="104"/>
       <c r="C54" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="69"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="104"/>
+      <c r="C55" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D54" s="72"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="114"/>
-      <c r="C55" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="72"/>
+      <c r="D55" s="69"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="80" t="s">
+      <c r="B56" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" s="72"/>
+      <c r="D56" s="69"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="80"/>
+      <c r="B57" s="106"/>
       <c r="C57" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="69"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="106"/>
+      <c r="C58" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="72"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="80"/>
-      <c r="C58" s="10" t="s">
+      <c r="D58" s="69"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="106"/>
+      <c r="C59" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D58" s="72"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="80"/>
-      <c r="C59" s="10" t="s">
+      <c r="D59" s="69"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="106"/>
+      <c r="C60" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D59" s="72"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="80"/>
-      <c r="C60" s="10" t="s">
+      <c r="D60" s="69"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="106"/>
+      <c r="C61" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="72"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="80"/>
-      <c r="C61" s="10" t="s">
+      <c r="D61" s="69"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="106"/>
+      <c r="C62" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="72"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="80"/>
-      <c r="C62" s="10" t="s">
+      <c r="D62" s="69"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="106"/>
+      <c r="C63" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="72"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="80"/>
-      <c r="C63" s="10" t="s">
+      <c r="D63" s="69"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="106"/>
+      <c r="C64" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="72"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="80"/>
-      <c r="C64" s="10" t="s">
+      <c r="D64" s="69"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="106"/>
+      <c r="C65" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="72"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="80"/>
-      <c r="C65" s="10" t="s">
+      <c r="D65" s="69"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="106"/>
+      <c r="C66" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D65" s="72"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="80"/>
-      <c r="C66" s="10" t="s">
+      <c r="D66" s="69"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="106"/>
+      <c r="C67" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D66" s="72"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="80"/>
-      <c r="C67" s="10" t="s">
+      <c r="D67" s="69"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="106"/>
+      <c r="C68" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D67" s="72"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="80"/>
-      <c r="C68" s="10" t="s">
+      <c r="D68" s="69"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="106"/>
+      <c r="C69" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D68" s="72"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="80"/>
-      <c r="C69" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D69" s="72"/>
+      <c r="D69" s="69"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="137" t="s">
-        <v>113</v>
+      <c r="B70" s="94" t="s">
+        <v>112</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D70" s="72"/>
+      <c r="D70" s="69"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="137"/>
+      <c r="B71" s="94"/>
       <c r="C71" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D71" s="72"/>
+      <c r="D71" s="69"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="137"/>
+      <c r="B72" s="94"/>
       <c r="C72" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D72" s="72"/>
+      <c r="D72" s="69"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="137"/>
+      <c r="B73" s="94"/>
       <c r="C73" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="69"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="94"/>
+      <c r="C74" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D73" s="72"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="137"/>
-      <c r="C74" s="10" t="s">
+      <c r="D74" s="69"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="94"/>
+      <c r="C75" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D74" s="72"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="137"/>
-      <c r="C75" s="10" t="s">
+      <c r="D75" s="69"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="94"/>
+      <c r="C76" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D75" s="72"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="137"/>
-      <c r="C76" s="10" t="s">
+      <c r="D76" s="69"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="94"/>
+      <c r="C77" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D76" s="72"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="137"/>
-      <c r="C77" s="10" t="s">
+      <c r="D77" s="69"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="94"/>
+      <c r="C78" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="72"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="137"/>
-      <c r="C78" s="10" t="s">
+      <c r="D78" s="69"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" s="94"/>
+      <c r="C79" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D78" s="72"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="137"/>
-      <c r="C79" s="10" t="s">
+      <c r="D79" s="69"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="94"/>
+      <c r="C80" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D79" s="72"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80" s="137"/>
-      <c r="C80" s="10" t="s">
+      <c r="D80" s="69"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="94"/>
+      <c r="C81" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D80" s="72"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="137"/>
-      <c r="C81" s="10" t="s">
+      <c r="D81" s="69"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="94"/>
+      <c r="C82" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D81" s="72"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="137"/>
-      <c r="C82" s="10" t="s">
+      <c r="D82" s="69"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="94"/>
+      <c r="C83" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D82" s="72"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="137"/>
-      <c r="C83" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" s="72"/>
+      <c r="D83" s="69"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="137" t="s">
+      <c r="B84" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D84" s="69"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="94"/>
+      <c r="C85" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" s="69"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="94"/>
+      <c r="C86" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" s="69"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="94"/>
+      <c r="C87" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="69"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="94"/>
+      <c r="C88" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" s="69"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="94"/>
+      <c r="C89" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D84" s="72"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="137"/>
-      <c r="C85" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D85" s="72"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="137"/>
-      <c r="C86" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D86" s="72"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="137"/>
-      <c r="C87" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D87" s="72"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="137"/>
-      <c r="C88" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D88" s="72"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="137"/>
-      <c r="C89" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D89" s="72"/>
+      <c r="D89" s="69"/>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B90" s="137"/>
+      <c r="B90" s="94"/>
       <c r="C90" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D90" s="72"/>
+        <v>86</v>
+      </c>
+      <c r="D90" s="69"/>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B91" s="137" t="s">
-        <v>123</v>
+      <c r="B91" s="94" t="s">
+        <v>122</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D91" s="72"/>
+      <c r="D91" s="69"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" s="137"/>
+      <c r="B92" s="94"/>
       <c r="C92" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D92" s="72"/>
+      <c r="D92" s="69"/>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B93" s="137"/>
+      <c r="B93" s="94"/>
       <c r="C93" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D93" s="69"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" s="94"/>
+      <c r="C94" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D93" s="72"/>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="137"/>
-      <c r="C94" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D94" s="72"/>
+      <c r="D94" s="69"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B95" s="80" t="s">
+      <c r="B95" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D95" s="72"/>
+      <c r="D95" s="69"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B96" s="80"/>
+      <c r="B96" s="106"/>
       <c r="C96" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D96" s="72"/>
+        <v>127</v>
+      </c>
+      <c r="D96" s="69"/>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="80" t="s">
+      <c r="B97" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="C97" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D97" s="72"/>
+      <c r="D97" s="69"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="80"/>
+      <c r="B98" s="106"/>
       <c r="C98" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="69"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="106"/>
+      <c r="C99" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D98" s="72"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="80"/>
-      <c r="C99" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D99" s="72"/>
+      <c r="D99" s="69"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="69" t="s">
-        <v>125</v>
+      <c r="B100" s="67" t="s">
+        <v>124</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D100" s="72"/>
+        <v>136</v>
+      </c>
+      <c r="D100" s="69"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101" s="80" t="s">
+      <c r="B101" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="C101" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="D101" s="69"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B102" s="106"/>
+      <c r="C102" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D101" s="72"/>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102" s="80"/>
-      <c r="C102" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D102" s="72"/>
+      <c r="D102" s="69"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="80" t="s">
-        <v>130</v>
+      <c r="B103" s="106" t="s">
+        <v>129</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D103" s="72"/>
+        <v>144</v>
+      </c>
+      <c r="D103" s="69"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="80"/>
+      <c r="B104" s="106"/>
       <c r="C104" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D104" s="69"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105" s="106"/>
+      <c r="C105" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D104" s="72"/>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="80"/>
-      <c r="C105" s="10" t="s">
+      <c r="D105" s="69"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="D105" s="72"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="80" t="s">
-        <v>149</v>
-      </c>
       <c r="C106" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D106" s="72"/>
+        <v>114</v>
+      </c>
+      <c r="D106" s="69"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="80"/>
+      <c r="B107" s="106"/>
       <c r="C107" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" s="69"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B108" s="106"/>
+      <c r="C108" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D107" s="72"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B108" s="80"/>
-      <c r="C108" s="10" t="s">
+      <c r="D108" s="69"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B109" s="106"/>
+      <c r="C109" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D108" s="72"/>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B109" s="80"/>
-      <c r="C109" s="10" t="s">
+      <c r="D109" s="69"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B110" s="106"/>
+      <c r="C110" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D109" s="72"/>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B110" s="80"/>
-      <c r="C110" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D110" s="72"/>
+      <c r="D110" s="69"/>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B111" s="80"/>
+      <c r="B111" s="106"/>
       <c r="C111" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D111" s="72"/>
+        <v>84</v>
+      </c>
+      <c r="D111" s="69"/>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B112" s="80"/>
+      <c r="B112" s="106"/>
       <c r="C112" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D112" s="72"/>
+        <v>86</v>
+      </c>
+      <c r="D112" s="69"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B113" s="80"/>
+      <c r="B113" s="106"/>
       <c r="C113" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D113" s="69"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114" s="106"/>
+      <c r="C114" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D113" s="72"/>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B114" s="80"/>
-      <c r="C114" s="10" t="s">
+      <c r="D114" s="69"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B115" s="106"/>
+      <c r="C115" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D114" s="72"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B115" s="80"/>
-      <c r="C115" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D115" s="72"/>
+      <c r="D115" s="69"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B116" s="80" t="s">
+      <c r="B116" s="106" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C116" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D116" s="72"/>
+      <c r="D116" s="69"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B117" s="80"/>
+      <c r="B117" s="106"/>
       <c r="C117" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D117" s="69"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B118" s="106"/>
+      <c r="C118" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D117" s="72"/>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B118" s="80"/>
-      <c r="C118" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D118" s="72"/>
+      <c r="D118" s="69"/>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B119" s="69" t="s">
-        <v>130</v>
+      <c r="B119" s="67" t="s">
+        <v>129</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D119" s="72"/>
+        <v>161</v>
+      </c>
+      <c r="D119" s="69"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B120" s="69" t="s">
+      <c r="B120" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="C120" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C120" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D120" s="72"/>
+      <c r="D120" s="69"/>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B121" s="69" t="s">
+      <c r="B121" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="C121" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C121" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D121" s="72"/>
+      <c r="D121" s="69"/>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B122" s="80" t="s">
+      <c r="B122" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="C122" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C122" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D122" s="72"/>
+      <c r="D122" s="69"/>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B123" s="80"/>
-      <c r="C123" s="25" t="s">
+      <c r="B123" s="106"/>
+      <c r="C123" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D123" s="69"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B124" s="106"/>
+      <c r="C124" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="D123" s="72"/>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B124" s="80"/>
-      <c r="C124" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D124" s="72"/>
+      <c r="D124" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B106:B115"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B101:B102"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B70:B83"/>
     <mergeCell ref="B84:B90"/>
@@ -5046,6 +5002,12 @@
     <mergeCell ref="B38:B51"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="B56:B69"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B106:B115"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B101:B102"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/BACKLOG e SPRINTS - ALPHA SYSTEM.xlsx
+++ b/BACKLOG e SPRINTS - ALPHA SYSTEM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programação\Github\ALPHA-SYSTEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A921C36-AA0C-483F-9F02-E68CC8C7DB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39EADF7-D828-4493-8FEF-12CC2795F621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A9DDF479-73C7-4D6A-B80B-192F7ACF7E6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9DDF479-73C7-4D6A-B80B-192F7ACF7E6F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPRINTS - ALPHA SYSTEM" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="185">
   <si>
     <t>BACKLOG - ALPHA SYSTEM</t>
   </si>
@@ -580,13 +580,25 @@
   </si>
   <si>
     <t>Módulo de Administrador (Operador)</t>
+  </si>
+  <si>
+    <t>6 HORAS</t>
+  </si>
+  <si>
+    <t>Revisão na Interface Mobile</t>
+  </si>
+  <si>
+    <t>PERIODO DE PROVAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,6 +672,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="72"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -711,7 +731,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1118,7 +1138,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1128,7 +1150,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1136,6 +1160,66 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1144,7 +1228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1308,23 +1392,140 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1365,15 +1566,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1383,128 +1575,48 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1821,33 +1933,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F68E82-F58E-46D4-B957-0A649B375855}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:H188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="131" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="124" t="s">
+    <row r="1" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-    </row>
-    <row r="2" spans="1:6" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+    </row>
+    <row r="2" spans="1:6" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
       <c r="B2" s="34"/>
       <c r="C2" s="2"/>
@@ -1855,7 +1967,7 @@
       <c r="E2" s="34"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1875,21 +1987,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="126" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="128"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="106" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="90"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="92" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1898,196 +2010,196 @@
       <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="92" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="106"/>
-      <c r="B6" s="122"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="77"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="122"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="106"/>
-      <c r="B7" s="122"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="77"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="122"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
-      <c r="B8" s="122"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="77"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="122"/>
+      <c r="E8" s="92"/>
       <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="106"/>
-      <c r="B9" s="122"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="77"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="122"/>
+      <c r="E9" s="92"/>
       <c r="F9" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="122"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="122"/>
+      <c r="E10" s="92"/>
       <c r="F10" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="106"/>
-      <c r="B11" s="122"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="77"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="122"/>
+      <c r="E11" s="92"/>
       <c r="F11" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="106"/>
-      <c r="B12" s="122"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="122"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="106"/>
-      <c r="B13" s="122"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="77"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="122"/>
+      <c r="E13" s="92"/>
       <c r="F13" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="106"/>
-      <c r="B14" s="122"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="77"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="122"/>
+      <c r="E14" s="92"/>
       <c r="F14" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="106"/>
-      <c r="B15" s="122"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="77"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="122"/>
+      <c r="E15" s="92"/>
       <c r="F15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="106"/>
-      <c r="B16" s="122"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="77"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="122"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="129"/>
-      <c r="B17" s="130"/>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="98"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="130"/>
+      <c r="E17" s="99"/>
       <c r="F17" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="112" t="s">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="114"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="120" t="s">
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="75"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="120" t="s">
+      <c r="B19" s="94" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -2096,182 +2208,182 @@
       <c r="D19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="121" t="s">
+      <c r="E19" s="95" t="s">
         <v>35</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="122"/>
+      <c r="E20" s="92"/>
       <c r="F20" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="122"/>
+      <c r="E21" s="92"/>
       <c r="F21" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="77"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="122"/>
+      <c r="E22" s="92"/>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
       <c r="C23" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="122"/>
+      <c r="E23" s="92"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="106"/>
-      <c r="B24" s="106"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="77"/>
+      <c r="B24" s="77"/>
       <c r="C24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="122"/>
+      <c r="E24" s="92"/>
       <c r="F24" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="106"/>
-      <c r="B25" s="106"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="122"/>
+      <c r="E25" s="92"/>
       <c r="F25" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="106"/>
-      <c r="B26" s="106"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
       <c r="C26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="122"/>
+      <c r="E26" s="92"/>
       <c r="F26" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="106"/>
-      <c r="B27" s="106"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="77"/>
+      <c r="B27" s="77"/>
       <c r="C27" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="122"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="106"/>
-      <c r="B28" s="106"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="122"/>
+      <c r="E28" s="92"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="106"/>
-      <c r="B29" s="106"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="77"/>
+      <c r="B29" s="77"/>
       <c r="C29" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="122"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="106"/>
-      <c r="B30" s="106"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="77"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="122"/>
+      <c r="E30" s="92"/>
       <c r="F30" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="107"/>
-      <c r="B31" s="107"/>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="78"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="123"/>
+      <c r="E31" s="93"/>
       <c r="F31" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>48</v>
       </c>
@@ -2291,21 +2403,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="112" t="s">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="114"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="71" t="s">
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="75"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="82" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="22" t="s">
@@ -2314,116 +2426,116 @@
       <c r="D34" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="79" t="s">
         <v>57</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="71"/>
-      <c r="B35" s="71"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="74"/>
+      <c r="E35" s="79"/>
       <c r="F35" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="71"/>
-      <c r="B36" s="71"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="82"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D36" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="74"/>
+      <c r="E36" s="79"/>
       <c r="F36" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="71"/>
-      <c r="B37" s="71"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="82"/>
+      <c r="B37" s="82"/>
       <c r="C37" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D37" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="74"/>
+      <c r="E37" s="79"/>
       <c r="F37" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="71"/>
-      <c r="B38" s="71"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="82"/>
+      <c r="B38" s="82"/>
       <c r="C38" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D38" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="74"/>
+      <c r="E38" s="79"/>
       <c r="F38" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="71"/>
-      <c r="B39" s="71"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="82"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D39" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="74"/>
+      <c r="E39" s="79"/>
       <c r="F39" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="71"/>
-      <c r="B40" s="71"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="82"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D40" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="74"/>
+      <c r="E40" s="79"/>
       <c r="F40" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="115"/>
-      <c r="B41" s="115"/>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="83"/>
+      <c r="B41" s="83"/>
       <c r="C41" s="16" t="s">
         <v>64</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="99"/>
+      <c r="E41" s="80"/>
       <c r="F41" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="116" t="s">
+    <row r="42" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="116" t="s">
+      <c r="B42" s="81" t="s">
         <v>66</v>
       </c>
       <c r="C42" s="22" t="s">
@@ -2432,200 +2544,200 @@
       <c r="D42" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="117" t="s">
+      <c r="E42" s="100" t="s">
         <v>68</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="71"/>
-      <c r="B43" s="71"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="82"/>
+      <c r="B43" s="82"/>
       <c r="C43" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D43" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="118"/>
+      <c r="E43" s="101"/>
       <c r="F43" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="82"/>
+      <c r="B44" s="82"/>
       <c r="C44" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D44" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="118"/>
+      <c r="E44" s="101"/>
       <c r="F44" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="71"/>
-      <c r="B45" s="71"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="82"/>
+      <c r="B45" s="82"/>
       <c r="C45" s="10" t="s">
         <v>71</v>
       </c>
       <c r="D45" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="118"/>
+      <c r="E45" s="101"/>
       <c r="F45" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="71"/>
-      <c r="B46" s="71"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="82"/>
+      <c r="B46" s="82"/>
       <c r="C46" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D46" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="118"/>
+      <c r="E46" s="101"/>
       <c r="F46" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="71"/>
-      <c r="B47" s="71"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="82"/>
+      <c r="B47" s="82"/>
       <c r="C47" s="10" t="s">
         <v>73</v>
       </c>
       <c r="D47" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="118"/>
+      <c r="E47" s="101"/>
       <c r="F47" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="71"/>
-      <c r="B48" s="71"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="82"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D48" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="118"/>
+      <c r="E48" s="101"/>
       <c r="F48" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="71"/>
-      <c r="B49" s="71"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="82"/>
+      <c r="B49" s="82"/>
       <c r="C49" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D49" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="118"/>
+      <c r="E49" s="101"/>
       <c r="F49" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="71"/>
-      <c r="B50" s="71"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="82"/>
+      <c r="B50" s="82"/>
       <c r="C50" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D50" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="118"/>
+      <c r="E50" s="101"/>
       <c r="F50" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="71"/>
-      <c r="B51" s="71"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="82"/>
+      <c r="B51" s="82"/>
       <c r="C51" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D51" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="118"/>
+      <c r="E51" s="101"/>
       <c r="F51" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="71"/>
-      <c r="B52" s="71"/>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="82"/>
+      <c r="B52" s="82"/>
       <c r="C52" s="10" t="s">
         <v>78</v>
       </c>
       <c r="D52" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="118"/>
+      <c r="E52" s="101"/>
       <c r="F52" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="71"/>
-      <c r="B53" s="71"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="82"/>
+      <c r="B53" s="82"/>
       <c r="C53" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D53" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="118"/>
+      <c r="E53" s="101"/>
       <c r="F53" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="71"/>
-      <c r="B54" s="71"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="82"/>
+      <c r="B54" s="82"/>
       <c r="C54" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D54" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="118"/>
+      <c r="E54" s="101"/>
       <c r="F54" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="115"/>
-      <c r="B55" s="115"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="83"/>
+      <c r="B55" s="83"/>
       <c r="C55" s="16" t="s">
         <v>81</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="119"/>
+      <c r="E55" s="102"/>
       <c r="F55" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="71" t="s">
+    <row r="56" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B56" s="71" t="s">
+      <c r="B56" s="82" t="s">
         <v>83</v>
       </c>
       <c r="C56" s="10" t="s">
@@ -2634,42 +2746,42 @@
       <c r="D56" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="73" t="s">
+      <c r="E56" s="87" t="s">
         <v>85</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
-      <c r="B57" s="72"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="76"/>
+      <c r="B57" s="76"/>
       <c r="C57" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="74"/>
+      <c r="E57" s="79"/>
       <c r="F57" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="100" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="101"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="102"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="72" t="s">
+      <c r="B58" s="107"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="108"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="B59" s="103" t="s">
+      <c r="B59" s="109" t="s">
         <v>89</v>
       </c>
       <c r="C59" s="29" t="s">
@@ -2678,1338 +2790,1380 @@
       <c r="D59" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="108" t="s">
+      <c r="E59" s="112" t="s">
         <v>90</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="106"/>
-      <c r="B60" s="104"/>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="77"/>
+      <c r="B60" s="110"/>
       <c r="C60" s="26" t="s">
         <v>69</v>
       </c>
       <c r="D60" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="108"/>
+      <c r="E60" s="112"/>
       <c r="F60" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="106"/>
-      <c r="B61" s="104"/>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="77"/>
+      <c r="B61" s="110"/>
       <c r="C61" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D61" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="108"/>
+      <c r="E61" s="112"/>
       <c r="F61" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="107"/>
-      <c r="B62" s="105"/>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="78"/>
+      <c r="B62" s="111"/>
       <c r="C62" s="27" t="s">
         <v>93</v>
       </c>
       <c r="D62" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="109"/>
+      <c r="E62" s="113"/>
       <c r="F62" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="81" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="120" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="81" t="s">
+      <c r="B63" s="120" t="s">
         <v>112</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>67</v>
       </c>
       <c r="D63" s="28"/>
-      <c r="E63" s="84" t="s">
+      <c r="E63" s="123" t="s">
         <v>68</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="82"/>
-      <c r="B64" s="82"/>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="121"/>
+      <c r="B64" s="121"/>
       <c r="C64" s="29" t="s">
         <v>69</v>
       </c>
       <c r="D64" s="30"/>
-      <c r="E64" s="85"/>
+      <c r="E64" s="124"/>
       <c r="F64" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="82"/>
-      <c r="B65" s="82"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="121"/>
+      <c r="B65" s="121"/>
       <c r="C65" s="29" t="s">
         <v>70</v>
       </c>
       <c r="D65" s="30"/>
-      <c r="E65" s="85"/>
+      <c r="E65" s="124"/>
       <c r="F65" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="82"/>
-      <c r="B66" s="82"/>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="121"/>
+      <c r="B66" s="121"/>
       <c r="C66" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D66" s="30"/>
-      <c r="E66" s="85"/>
+      <c r="E66" s="124"/>
       <c r="F66" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="82"/>
-      <c r="B67" s="82"/>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="121"/>
+      <c r="B67" s="121"/>
       <c r="C67" s="29" t="s">
         <v>72</v>
       </c>
       <c r="D67" s="30"/>
-      <c r="E67" s="85"/>
+      <c r="E67" s="124"/>
       <c r="F67" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="82"/>
-      <c r="B68" s="82"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="121"/>
+      <c r="B68" s="121"/>
       <c r="C68" s="29" t="s">
         <v>73</v>
       </c>
       <c r="D68" s="30"/>
-      <c r="E68" s="85"/>
+      <c r="E68" s="124"/>
       <c r="F68" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="82"/>
-      <c r="B69" s="82"/>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="121"/>
+      <c r="B69" s="121"/>
       <c r="C69" s="29" t="s">
         <v>74</v>
       </c>
       <c r="D69" s="30"/>
-      <c r="E69" s="85"/>
+      <c r="E69" s="124"/>
       <c r="F69" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="82"/>
-      <c r="B70" s="82"/>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="121"/>
+      <c r="B70" s="121"/>
       <c r="C70" s="29" t="s">
         <v>75</v>
       </c>
       <c r="D70" s="30"/>
-      <c r="E70" s="85"/>
+      <c r="E70" s="124"/>
       <c r="F70" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="82"/>
-      <c r="B71" s="82"/>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="121"/>
+      <c r="B71" s="121"/>
       <c r="C71" s="29" t="s">
         <v>76</v>
       </c>
       <c r="D71" s="30"/>
-      <c r="E71" s="85"/>
+      <c r="E71" s="124"/>
       <c r="F71" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="82"/>
-      <c r="B72" s="82"/>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="121"/>
+      <c r="B72" s="121"/>
       <c r="C72" s="29" t="s">
         <v>77</v>
       </c>
       <c r="D72" s="30"/>
-      <c r="E72" s="85"/>
+      <c r="E72" s="124"/>
       <c r="F72" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="82"/>
-      <c r="B73" s="82"/>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="121"/>
+      <c r="B73" s="121"/>
       <c r="C73" s="29" t="s">
         <v>78</v>
       </c>
       <c r="D73" s="30"/>
-      <c r="E73" s="85"/>
+      <c r="E73" s="124"/>
       <c r="F73" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="82"/>
-      <c r="B74" s="82"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="121"/>
+      <c r="B74" s="121"/>
       <c r="C74" s="29" t="s">
         <v>79</v>
       </c>
       <c r="D74" s="30"/>
-      <c r="E74" s="85"/>
+      <c r="E74" s="124"/>
       <c r="F74" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="82"/>
-      <c r="B75" s="82"/>
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="121"/>
+      <c r="B75" s="121"/>
       <c r="C75" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D75" s="30"/>
-      <c r="E75" s="85"/>
+      <c r="E75" s="124"/>
       <c r="F75" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="83"/>
-      <c r="B76" s="83"/>
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="122"/>
+      <c r="B76" s="122"/>
       <c r="C76" s="16" t="s">
         <v>81</v>
       </c>
       <c r="D76" s="36"/>
-      <c r="E76" s="86"/>
+      <c r="E76" s="125"/>
       <c r="F76" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="112" t="s">
+    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="B77" s="113"/>
-      <c r="C77" s="113"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="113"/>
-      <c r="F77" s="114"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="90"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="106" t="s">
-        <v>94</v>
-      </c>
-      <c r="B78" s="106" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="137" t="s">
+        <v>183</v>
+      </c>
+      <c r="B78" s="138"/>
+      <c r="C78" s="138"/>
+      <c r="D78" s="138"/>
+      <c r="E78" s="138"/>
+      <c r="F78" s="139"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="140"/>
+      <c r="B79" s="136"/>
+      <c r="C79" s="136"/>
+      <c r="D79" s="136"/>
+      <c r="E79" s="136"/>
+      <c r="F79" s="141"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="140"/>
+      <c r="B80" s="136"/>
+      <c r="C80" s="136"/>
+      <c r="D80" s="136"/>
+      <c r="E80" s="136"/>
+      <c r="F80" s="141"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="140"/>
+      <c r="B81" s="136"/>
+      <c r="C81" s="136"/>
+      <c r="D81" s="136"/>
+      <c r="E81" s="136"/>
+      <c r="F81" s="141"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="140"/>
+      <c r="B82" s="136"/>
+      <c r="C82" s="136"/>
+      <c r="D82" s="136"/>
+      <c r="E82" s="136"/>
+      <c r="F82" s="141"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="142"/>
+      <c r="B83" s="143"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="143"/>
+      <c r="E83" s="143"/>
+      <c r="F83" s="144"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" s="107"/>
+      <c r="C84" s="107"/>
+      <c r="D84" s="107"/>
+      <c r="E84" s="107"/>
+      <c r="F84" s="108"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D78" s="21"/>
-      <c r="E78" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="F78" s="31" t="s">
+      <c r="C85" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" s="133"/>
+      <c r="E85" s="110" t="s">
+        <v>181</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="77"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86" s="133"/>
+      <c r="E86" s="110"/>
+      <c r="F86" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="77"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D87" s="133"/>
+      <c r="E87" s="110"/>
+      <c r="F87" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="77"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D88" s="133"/>
+      <c r="E88" s="110"/>
+      <c r="F88" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="78"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D89" s="36"/>
+      <c r="E89" s="111"/>
+      <c r="F89" s="134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D90" s="41"/>
+      <c r="E90" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F90" s="135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="74"/>
+      <c r="C91" s="74"/>
+      <c r="D91" s="74"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="75"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D92" s="23"/>
+      <c r="E92" s="146" t="s">
+        <v>126</v>
+      </c>
+      <c r="F92" s="45" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="106"/>
-      <c r="B79" s="106"/>
-      <c r="C79" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="110"/>
-      <c r="F79" s="31" t="s">
+    <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="86"/>
+      <c r="B93" s="83"/>
+      <c r="C93" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D93" s="41"/>
+      <c r="E93" s="91"/>
+      <c r="F93" s="33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="106"/>
-      <c r="B80" s="106"/>
-      <c r="C80" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="110"/>
-      <c r="F80" s="31" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D94" s="47"/>
+      <c r="E94" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="F94" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="106"/>
-      <c r="B81" s="106"/>
-      <c r="C81" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="110"/>
-      <c r="F81" s="31" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="85"/>
+      <c r="B95" s="82"/>
+      <c r="C95" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D95" s="24"/>
+      <c r="E95" s="92"/>
+      <c r="F95" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="106"/>
-      <c r="B82" s="106"/>
-      <c r="C82" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="110"/>
-      <c r="F82" s="31" t="s">
+    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="86"/>
+      <c r="B96" s="83"/>
+      <c r="C96" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D96" s="48"/>
+      <c r="E96" s="93"/>
+      <c r="F96" s="46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="106"/>
-      <c r="B83" s="106"/>
-      <c r="C83" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="110"/>
-      <c r="F83" s="31" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B97" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D97" s="23"/>
+      <c r="E97" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="F97" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="106"/>
-      <c r="B84" s="106"/>
-      <c r="C84" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D84" s="21"/>
-      <c r="E84" s="110"/>
-      <c r="F84" s="31" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="77"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D98" s="24"/>
+      <c r="E98" s="79"/>
+      <c r="F98" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="106"/>
-      <c r="B85" s="106"/>
-      <c r="C85" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D85" s="21"/>
-      <c r="E85" s="110"/>
-      <c r="F85" s="31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="106"/>
-      <c r="B86" s="106"/>
-      <c r="C86" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D86" s="21"/>
-      <c r="E86" s="110"/>
-      <c r="F86" s="31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="106"/>
-      <c r="B87" s="106"/>
-      <c r="C87" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D87" s="21"/>
-      <c r="E87" s="110"/>
-      <c r="F87" s="31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="106"/>
-      <c r="B88" s="106"/>
-      <c r="C88" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D88" s="21"/>
-      <c r="E88" s="110"/>
-      <c r="F88" s="31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="106"/>
-      <c r="B89" s="106"/>
-      <c r="C89" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D89" s="21"/>
-      <c r="E89" s="110"/>
-      <c r="F89" s="31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="106"/>
-      <c r="B90" s="106"/>
-      <c r="C90" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D90" s="21"/>
-      <c r="E90" s="110"/>
-      <c r="F90" s="31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="107"/>
-      <c r="B91" s="107"/>
-      <c r="C91" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D91" s="25"/>
-      <c r="E91" s="111"/>
-      <c r="F91" s="31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="B92" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D92" s="54"/>
-      <c r="E92" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="F92" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-    </row>
-    <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="82"/>
-      <c r="B93" s="82"/>
-      <c r="C93" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D93" s="54"/>
-      <c r="E93" s="88"/>
-      <c r="F93" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-    </row>
-    <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="82"/>
-      <c r="B94" s="82"/>
-      <c r="C94" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D94" s="54"/>
-      <c r="E94" s="88"/>
-      <c r="F94" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-    </row>
-    <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="83"/>
-      <c r="B95" s="83"/>
-      <c r="C95" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D95" s="55"/>
-      <c r="E95" s="89"/>
-      <c r="F95" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-    </row>
-    <row r="96" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="116" t="s">
-        <v>123</v>
-      </c>
-      <c r="B96" s="116" t="s">
-        <v>124</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D96" s="23"/>
-      <c r="E96" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="F96" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-    </row>
-    <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="115"/>
-      <c r="B97" s="115"/>
-      <c r="C97" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D97" s="41"/>
-      <c r="E97" s="99"/>
-      <c r="F97" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-    </row>
-    <row r="98" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="96" t="s">
-        <v>128</v>
-      </c>
-      <c r="B98" s="116" t="s">
-        <v>129</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D98" s="23"/>
-      <c r="E98" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="F98" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="97"/>
-      <c r="B99" s="71"/>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="77"/>
+      <c r="B99" s="77"/>
       <c r="C99" s="10" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D99" s="24"/>
-      <c r="E99" s="74"/>
+      <c r="E99" s="79"/>
       <c r="F99" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-    </row>
-    <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="98"/>
-      <c r="B100" s="115"/>
-      <c r="C100" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D100" s="41"/>
-      <c r="E100" s="99"/>
-      <c r="F100" s="33" t="s">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="77"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D100" s="24"/>
+      <c r="E100" s="79"/>
+      <c r="F100" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-    </row>
-    <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="B101" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D101" s="51"/>
-      <c r="E101" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="F101" s="33" t="s">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="77"/>
+      <c r="B101" s="77"/>
+      <c r="C101" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" s="24"/>
+      <c r="E101" s="79"/>
+      <c r="F101" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-    </row>
-    <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="94"/>
-      <c r="B102" s="94"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="77"/>
+      <c r="B102" s="77"/>
       <c r="C102" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D102" s="52"/>
-      <c r="E102" s="88"/>
-      <c r="F102" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D102" s="24"/>
+      <c r="E102" s="79"/>
+      <c r="F102" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-    </row>
-    <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="94"/>
-      <c r="B103" s="94"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="77"/>
+      <c r="B103" s="77"/>
       <c r="C103" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D103" s="52"/>
-      <c r="E103" s="88"/>
-      <c r="F103" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D103" s="24"/>
+      <c r="E103" s="79"/>
+      <c r="F103" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-    </row>
-    <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="94"/>
-      <c r="B104" s="94"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="77"/>
+      <c r="B104" s="77"/>
       <c r="C104" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D104" s="52"/>
-      <c r="E104" s="88"/>
-      <c r="F104" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D104" s="24"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-    </row>
-    <row r="105" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="95"/>
-      <c r="B105" s="95"/>
-      <c r="C105" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="D105" s="53"/>
-      <c r="E105" s="88"/>
-      <c r="F105" s="33" t="s">
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="77"/>
+      <c r="B105" s="77"/>
+      <c r="C105" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D105" s="24"/>
+      <c r="E105" s="79"/>
+      <c r="F105" s="32" t="s">
         <v>91</v>
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="90" t="s">
-        <v>134</v>
-      </c>
-      <c r="B106" s="91"/>
-      <c r="C106" s="91"/>
-      <c r="D106" s="91"/>
-      <c r="E106" s="91"/>
-      <c r="F106" s="92"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-    </row>
-    <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D107" s="41"/>
-      <c r="E107" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="F107" s="33" t="s">
+    <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="78"/>
+      <c r="B106" s="78"/>
+      <c r="C106" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D106" s="41"/>
+      <c r="E106" s="80"/>
+      <c r="F106" s="45" t="s">
         <v>91</v>
       </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="B107" s="74"/>
+      <c r="C107" s="74"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="75"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="B108" s="116" t="s">
-        <v>139</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D108" s="23"/>
-      <c r="E108" s="132" t="s">
-        <v>126</v>
-      </c>
-      <c r="F108" s="33" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="B108" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="C108" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D108" s="47"/>
+      <c r="E108" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="F108" s="32" t="s">
         <v>91</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
     </row>
-    <row r="109" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="131"/>
-      <c r="B109" s="115"/>
-      <c r="C109" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="D109" s="41"/>
-      <c r="E109" s="133"/>
-      <c r="F109" s="33" t="s">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="85"/>
+      <c r="B109" s="82"/>
+      <c r="C109" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D109" s="24"/>
+      <c r="E109" s="79"/>
+      <c r="F109" s="32" t="s">
         <v>91</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
     </row>
-    <row r="110" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="126" t="s">
-        <v>142</v>
-      </c>
-      <c r="B110" s="127"/>
-      <c r="C110" s="127"/>
-      <c r="D110" s="127"/>
-      <c r="E110" s="127"/>
-      <c r="F110" s="128"/>
+    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="86"/>
+      <c r="B110" s="83"/>
+      <c r="C110" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D110" s="48"/>
+      <c r="E110" s="80"/>
+      <c r="F110" s="32" t="s">
+        <v>91</v>
+      </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="B111" s="116" t="s">
+    <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B111" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C111" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="D111" s="47"/>
-      <c r="E111" s="122" t="s">
-        <v>145</v>
-      </c>
-      <c r="F111" s="32" t="s">
+      <c r="C111" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D111" s="58"/>
+      <c r="E111" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="F111" s="33" t="s">
         <v>91</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="76"/>
-      <c r="B112" s="71"/>
-      <c r="C112" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D112" s="24"/>
-      <c r="E112" s="122"/>
-      <c r="F112" s="32" t="s">
-        <v>91</v>
-      </c>
+    <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="B112" s="89"/>
+      <c r="C112" s="89"/>
+      <c r="D112" s="89"/>
+      <c r="E112" s="89"/>
+      <c r="F112" s="90"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="131"/>
-      <c r="B113" s="115"/>
-      <c r="C113" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="D113" s="48"/>
-      <c r="E113" s="123"/>
-      <c r="F113" s="46" t="s">
+    <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B113" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C113" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D113" s="58"/>
+      <c r="E113" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="F113" s="32" t="s">
         <v>91</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="B114" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D114" s="23"/>
-      <c r="E114" s="74" t="s">
-        <v>149</v>
-      </c>
+    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B114" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D114" s="58"/>
+      <c r="E114" s="72"/>
       <c r="F114" s="32" t="s">
         <v>91</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="106"/>
-      <c r="B115" s="106"/>
-      <c r="C115" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D115" s="24"/>
+    <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="B115" s="74"/>
+      <c r="C115" s="74"/>
+      <c r="D115" s="74"/>
       <c r="E115" s="74"/>
-      <c r="F115" s="32" t="s">
-        <v>91</v>
-      </c>
+      <c r="F115" s="75"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="106"/>
-      <c r="B116" s="106"/>
-      <c r="C116" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D116" s="24"/>
-      <c r="E116" s="74"/>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B116" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="C116" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="D116" s="64"/>
+      <c r="E116" s="117" t="s">
+        <v>174</v>
+      </c>
       <c r="F116" s="32" t="s">
         <v>91</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="106"/>
-      <c r="B117" s="106"/>
-      <c r="C117" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D117" s="24"/>
-      <c r="E117" s="74"/>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="85"/>
+      <c r="B117" s="85"/>
+      <c r="C117" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="D117" s="63"/>
+      <c r="E117" s="118"/>
       <c r="F117" s="32" t="s">
         <v>91</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="106"/>
-      <c r="B118" s="106"/>
-      <c r="C118" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D118" s="24"/>
-      <c r="E118" s="74"/>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="116"/>
+      <c r="B118" s="116"/>
+      <c r="C118" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="D118" s="63"/>
+      <c r="E118" s="119"/>
       <c r="F118" s="32" t="s">
         <v>91</v>
       </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="106"/>
-      <c r="B119" s="106"/>
-      <c r="C119" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D119" s="24"/>
-      <c r="E119" s="74"/>
-      <c r="F119" s="32" t="s">
-        <v>91</v>
-      </c>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="106"/>
-      <c r="B120" s="106"/>
-      <c r="C120" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D120" s="24"/>
-      <c r="E120" s="74"/>
-      <c r="F120" s="32" t="s">
-        <v>91</v>
-      </c>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="106"/>
-      <c r="B121" s="106"/>
-      <c r="C121" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D121" s="24"/>
-      <c r="E121" s="74"/>
-      <c r="F121" s="32" t="s">
-        <v>91</v>
-      </c>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="106"/>
-      <c r="B122" s="106"/>
-      <c r="C122" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D122" s="24"/>
-      <c r="E122" s="74"/>
-      <c r="F122" s="32" t="s">
-        <v>91</v>
-      </c>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
     </row>
-    <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="107"/>
-      <c r="B123" s="107"/>
-      <c r="C123" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D123" s="41"/>
-      <c r="E123" s="99"/>
-      <c r="F123" s="45" t="s">
-        <v>91</v>
-      </c>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
     </row>
-    <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="B124" s="113"/>
-      <c r="C124" s="113"/>
-      <c r="D124" s="113"/>
-      <c r="E124" s="113"/>
-      <c r="F124" s="114"/>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="B125" s="116" t="s">
-        <v>155</v>
-      </c>
-      <c r="C125" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="D125" s="47"/>
-      <c r="E125" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="F125" s="32" t="s">
-        <v>91</v>
-      </c>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="76"/>
-      <c r="B126" s="71"/>
-      <c r="C126" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D126" s="24"/>
-      <c r="E126" s="74"/>
-      <c r="F126" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-    </row>
-    <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="131"/>
-      <c r="B127" s="115"/>
-      <c r="C127" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="D127" s="48"/>
-      <c r="E127" s="99"/>
-      <c r="F127" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="B128" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C128" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="D128" s="58"/>
-      <c r="E128" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="F128" s="33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="126" t="s">
-        <v>162</v>
-      </c>
-      <c r="B129" s="127"/>
-      <c r="C129" s="127"/>
-      <c r="D129" s="127"/>
-      <c r="E129" s="127"/>
-      <c r="F129" s="128"/>
-    </row>
-    <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="B130" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="C130" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="D130" s="58"/>
-      <c r="E130" s="134" t="s">
-        <v>166</v>
-      </c>
-      <c r="F130" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="B131" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D131" s="58"/>
-      <c r="E131" s="135"/>
-      <c r="F131" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="B132" s="113"/>
-      <c r="C132" s="113"/>
-      <c r="D132" s="113"/>
-      <c r="E132" s="113"/>
-      <c r="F132" s="114"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="75" t="s">
-        <v>171</v>
-      </c>
-      <c r="B133" s="75" t="s">
-        <v>172</v>
-      </c>
-      <c r="C133" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="D133" s="64"/>
-      <c r="E133" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="F133" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="76"/>
-      <c r="B134" s="76"/>
-      <c r="C134" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="D134" s="63"/>
-      <c r="E134" s="79"/>
-      <c r="F134" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="77"/>
-      <c r="B135" s="77"/>
-      <c r="C135" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="D135" s="63"/>
-      <c r="E135" s="80"/>
-      <c r="F135" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="43"/>
-      <c r="B136" s="43"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="43"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B140" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D140" s="21"/>
+      <c r="E140" s="114" t="s">
+        <v>97</v>
+      </c>
+      <c r="F140" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="77"/>
+      <c r="B141" s="77"/>
+      <c r="C141" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D141" s="21"/>
+      <c r="E141" s="114"/>
+      <c r="F141" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="77"/>
+      <c r="B142" s="77"/>
+      <c r="C142" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D142" s="21"/>
+      <c r="E142" s="114"/>
+      <c r="F142" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="77"/>
+      <c r="B143" s="77"/>
+      <c r="C143" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D143" s="21"/>
+      <c r="E143" s="114"/>
+      <c r="F143" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="77"/>
+      <c r="B144" s="77"/>
+      <c r="C144" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D144" s="21"/>
+      <c r="E144" s="114"/>
+      <c r="F144" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="77"/>
+      <c r="B145" s="77"/>
+      <c r="C145" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D145" s="21"/>
+      <c r="E145" s="114"/>
+      <c r="F145" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="77"/>
+      <c r="B146" s="77"/>
+      <c r="C146" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D146" s="21"/>
+      <c r="E146" s="114"/>
+      <c r="F146" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="77"/>
+      <c r="B147" s="77"/>
+      <c r="C147" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D147" s="21"/>
+      <c r="E147" s="114"/>
+      <c r="F147" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="77"/>
+      <c r="B148" s="77"/>
+      <c r="C148" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D148" s="21"/>
+      <c r="E148" s="114"/>
+      <c r="F148" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="77"/>
+      <c r="B149" s="77"/>
+      <c r="C149" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D149" s="21"/>
+      <c r="E149" s="114"/>
+      <c r="F149" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="77"/>
+      <c r="B150" s="77"/>
+      <c r="C150" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D150" s="21"/>
+      <c r="E150" s="114"/>
+      <c r="F150" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="77"/>
+      <c r="B151" s="77"/>
+      <c r="C151" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D151" s="21"/>
+      <c r="E151" s="114"/>
+      <c r="F151" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="77"/>
+      <c r="B152" s="77"/>
+      <c r="C152" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D152" s="21"/>
+      <c r="E152" s="114"/>
+      <c r="F152" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="78"/>
+      <c r="B153" s="78"/>
+      <c r="C153" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D153" s="25"/>
+      <c r="E153" s="115"/>
+      <c r="F153" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B154" s="120" t="s">
+        <v>122</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D154" s="54"/>
+      <c r="E154" s="126" t="s">
+        <v>90</v>
+      </c>
+      <c r="F154" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+    </row>
+    <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="121"/>
+      <c r="B155" s="121"/>
+      <c r="C155" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D155" s="54"/>
+      <c r="E155" s="127"/>
+      <c r="F155" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="121"/>
+      <c r="B156" s="121"/>
+      <c r="C156" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D156" s="54"/>
+      <c r="E156" s="127"/>
+      <c r="F156" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+    </row>
+    <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="122"/>
+      <c r="B157" s="122"/>
+      <c r="C157" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D157" s="55"/>
+      <c r="E157" s="128"/>
+      <c r="F157" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B158" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="C158" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D158" s="23"/>
+      <c r="E158" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F158" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+    </row>
+    <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="83"/>
+      <c r="B159" s="83"/>
+      <c r="C159" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D159" s="41"/>
+      <c r="E159" s="80"/>
+      <c r="F159" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+    </row>
+    <row r="160" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="B160" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C160" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D160" s="23"/>
+      <c r="E160" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="F160" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="104"/>
+      <c r="B161" s="82"/>
+      <c r="C161" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D161" s="24"/>
+      <c r="E161" s="79"/>
+      <c r="F161" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+    </row>
+    <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="105"/>
+      <c r="B162" s="83"/>
+      <c r="C162" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D162" s="41"/>
+      <c r="E162" s="80"/>
+      <c r="F162" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+    </row>
+    <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="B163" s="129" t="s">
+        <v>83</v>
+      </c>
+      <c r="C163" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D163" s="51"/>
+      <c r="E163" s="126" t="s">
+        <v>115</v>
+      </c>
+      <c r="F163" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+    </row>
+    <row r="164" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="130"/>
+      <c r="B164" s="130"/>
+      <c r="C164" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D164" s="52"/>
+      <c r="E164" s="127"/>
+      <c r="F164" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+    </row>
+    <row r="165" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="130"/>
+      <c r="B165" s="130"/>
+      <c r="C165" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D165" s="52"/>
+      <c r="E165" s="127"/>
+      <c r="F165" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+    </row>
+    <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="130"/>
+      <c r="B166" s="130"/>
+      <c r="C166" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D166" s="52"/>
+      <c r="E166" s="127"/>
+      <c r="F166" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+    </row>
+    <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="131"/>
+      <c r="B167" s="131"/>
+      <c r="C167" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D167" s="53"/>
+      <c r="E167" s="127"/>
+      <c r="F167" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="B114:B123"/>
-    <mergeCell ref="A114:A123"/>
-    <mergeCell ref="E114:E123"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="E125:E127"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="E111:E113"/>
+  <mergeCells count="67">
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="A78:F83"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="A63:A76"/>
+    <mergeCell ref="B63:B76"/>
+    <mergeCell ref="E63:E76"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="E154:E157"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B163:B167"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="E163:E167"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="E160:E162"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="B140:B153"/>
+    <mergeCell ref="A140:A153"/>
+    <mergeCell ref="E140:E153"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="E34:E41"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="B42:B55"/>
+    <mergeCell ref="E42:E55"/>
     <mergeCell ref="A19:A31"/>
     <mergeCell ref="B19:B31"/>
     <mergeCell ref="E19:E31"/>
@@ -4019,43 +4173,23 @@
     <mergeCell ref="B5:B17"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="E5:E17"/>
-    <mergeCell ref="E34:E41"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A42:A55"/>
-    <mergeCell ref="B42:B55"/>
-    <mergeCell ref="E42:E55"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="B78:B91"/>
-    <mergeCell ref="A78:A91"/>
-    <mergeCell ref="E78:E91"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="E133:E135"/>
-    <mergeCell ref="A63:A76"/>
-    <mergeCell ref="B63:B76"/>
-    <mergeCell ref="E63:E76"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="E101:E105"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="B97:B106"/>
+    <mergeCell ref="A97:A106"/>
+    <mergeCell ref="E97:E106"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="A112:F112"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4071,23 +4205,23 @@
       <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="69" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="126.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.109375" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="126.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="B1" s="136" t="s">
+    <row r="1" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="136"/>
+      <c r="C1" s="132"/>
       <c r="D1" s="69"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="122" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="92" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -4095,92 +4229,92 @@
       </c>
       <c r="D2" s="69"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="122"/>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="92"/>
       <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="69"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="122"/>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="92"/>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="69"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="122"/>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="92"/>
       <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="69"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="122"/>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="92"/>
       <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="69"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="122"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="92"/>
       <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="69"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="122"/>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="92"/>
       <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="69"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="122"/>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="92"/>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="69"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="122"/>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="92"/>
       <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="69"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="122"/>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="92"/>
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="69"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="122"/>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="92"/>
       <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="69"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="122"/>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="92"/>
       <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="69"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="122"/>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="92"/>
       <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="69"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="106" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="77" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -4188,91 +4322,91 @@
       </c>
       <c r="D15" s="69"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="106"/>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="77"/>
       <c r="C16" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="69"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="106"/>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="77"/>
       <c r="C17" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="69"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="106"/>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="77"/>
       <c r="C18" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="69"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="106"/>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="77"/>
       <c r="C19" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="69"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="106"/>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="77"/>
       <c r="C20" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="69"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="106"/>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="77"/>
       <c r="C21" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="69"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="106"/>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="77"/>
       <c r="C22" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="69"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="106"/>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="77"/>
       <c r="C23" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="69"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="106"/>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="77"/>
       <c r="C24" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="69"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="106"/>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="77"/>
       <c r="C25" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="69"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="106"/>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="77"/>
       <c r="C26" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="69"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="106"/>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="77"/>
       <c r="C27" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="69"/>
     </row>
-    <row r="28" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B28" s="68" t="s">
         <v>49</v>
       </c>
@@ -4281,8 +4415,8 @@
       </c>
       <c r="D28" s="69"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="106" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="77" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -4290,64 +4424,64 @@
       </c>
       <c r="D29" s="69"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="106"/>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="77"/>
       <c r="C30" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="69"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="106"/>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="77"/>
       <c r="C31" s="10" t="s">
         <v>178</v>
       </c>
       <c r="D31" s="69"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="106"/>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="77"/>
       <c r="C32" s="10" t="s">
         <v>179</v>
       </c>
       <c r="D32" s="69"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="106"/>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="77"/>
       <c r="C33" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="69"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="106"/>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="77"/>
       <c r="C34" s="10" t="s">
         <v>180</v>
       </c>
       <c r="D34" s="69"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="106"/>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="77"/>
       <c r="C35" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D35" s="69"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="106"/>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="77"/>
       <c r="C36" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D36" s="69"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="106"/>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="77"/>
       <c r="C37" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D37" s="69"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="106" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="77" t="s">
         <v>66</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -4355,99 +4489,99 @@
       </c>
       <c r="D38" s="69"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="106"/>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="77"/>
       <c r="C39" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D39" s="69"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="106"/>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="77"/>
       <c r="C40" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D40" s="69"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="106"/>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="77"/>
       <c r="C41" s="10" t="s">
         <v>71</v>
       </c>
       <c r="D41" s="69"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="106"/>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="77"/>
       <c r="C42" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D42" s="69"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="106"/>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="77"/>
       <c r="C43" s="10" t="s">
         <v>73</v>
       </c>
       <c r="D43" s="69"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="106"/>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="77"/>
       <c r="C44" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D44" s="69"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="106"/>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="77"/>
       <c r="C45" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D45" s="69"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="106"/>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="77"/>
       <c r="C46" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D46" s="69"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="106"/>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="77"/>
       <c r="C47" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D47" s="69"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="106"/>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="77"/>
       <c r="C48" s="10" t="s">
         <v>78</v>
       </c>
       <c r="D48" s="69"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="106"/>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="77"/>
       <c r="C49" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D49" s="69"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="106"/>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="77"/>
       <c r="C50" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D50" s="69"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="106"/>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="77"/>
       <c r="C51" s="10" t="s">
         <v>81</v>
       </c>
       <c r="D51" s="69"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="104" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="110" t="s">
         <v>89</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -4455,29 +4589,29 @@
       </c>
       <c r="D52" s="69"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="104"/>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="110"/>
       <c r="C53" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D53" s="69"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="104"/>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="110"/>
       <c r="C54" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D54" s="69"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="104"/>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="110"/>
       <c r="C55" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D55" s="69"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="106" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="77" t="s">
         <v>95</v>
       </c>
       <c r="C56" s="10" t="s">
@@ -4485,99 +4619,99 @@
       </c>
       <c r="D56" s="69"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="106"/>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="77"/>
       <c r="C57" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D57" s="69"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="106"/>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="77"/>
       <c r="C58" s="10" t="s">
         <v>99</v>
       </c>
       <c r="D58" s="69"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="106"/>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="77"/>
       <c r="C59" s="10" t="s">
         <v>100</v>
       </c>
       <c r="D59" s="69"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="106"/>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="77"/>
       <c r="C60" s="10" t="s">
         <v>101</v>
       </c>
       <c r="D60" s="69"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="106"/>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="77"/>
       <c r="C61" s="10" t="s">
         <v>102</v>
       </c>
       <c r="D61" s="69"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="106"/>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="77"/>
       <c r="C62" s="10" t="s">
         <v>103</v>
       </c>
       <c r="D62" s="69"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="106"/>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="77"/>
       <c r="C63" s="10" t="s">
         <v>104</v>
       </c>
       <c r="D63" s="69"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="106"/>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="77"/>
       <c r="C64" s="10" t="s">
         <v>105</v>
       </c>
       <c r="D64" s="69"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="106"/>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="77"/>
       <c r="C65" s="10" t="s">
         <v>106</v>
       </c>
       <c r="D65" s="69"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="106"/>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="77"/>
       <c r="C66" s="10" t="s">
         <v>107</v>
       </c>
       <c r="D66" s="69"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="106"/>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="77"/>
       <c r="C67" s="10" t="s">
         <v>108</v>
       </c>
       <c r="D67" s="69"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="106"/>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="77"/>
       <c r="C68" s="10" t="s">
         <v>109</v>
       </c>
       <c r="D68" s="69"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="106"/>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="77"/>
       <c r="C69" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D69" s="69"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="94" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="130" t="s">
         <v>112</v>
       </c>
       <c r="C70" s="10" t="s">
@@ -4585,99 +4719,99 @@
       </c>
       <c r="D70" s="69"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="94"/>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="130"/>
       <c r="C71" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D71" s="69"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="94"/>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="130"/>
       <c r="C72" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D72" s="69"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="94"/>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="130"/>
       <c r="C73" s="10" t="s">
         <v>71</v>
       </c>
       <c r="D73" s="69"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="94"/>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="130"/>
       <c r="C74" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D74" s="69"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="94"/>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="130"/>
       <c r="C75" s="10" t="s">
         <v>73</v>
       </c>
       <c r="D75" s="69"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="94"/>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="130"/>
       <c r="C76" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D76" s="69"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="94"/>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="130"/>
       <c r="C77" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D77" s="69"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="94"/>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="130"/>
       <c r="C78" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D78" s="69"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="94"/>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="130"/>
       <c r="C79" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D79" s="69"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80" s="94"/>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="130"/>
       <c r="C80" s="10" t="s">
         <v>78</v>
       </c>
       <c r="D80" s="69"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="94"/>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="130"/>
       <c r="C81" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D81" s="69"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="94"/>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="130"/>
       <c r="C82" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D82" s="69"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="94"/>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="130"/>
       <c r="C83" s="10" t="s">
         <v>81</v>
       </c>
       <c r="D83" s="69"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="94" t="s">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="130" t="s">
         <v>83</v>
       </c>
       <c r="C84" s="10" t="s">
@@ -4685,50 +4819,50 @@
       </c>
       <c r="D84" s="69"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="94"/>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="130"/>
       <c r="C85" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D85" s="69"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="94"/>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="130"/>
       <c r="C86" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D86" s="69"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="94"/>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="130"/>
       <c r="C87" s="10" t="s">
         <v>118</v>
       </c>
       <c r="D87" s="69"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="94"/>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="130"/>
       <c r="C88" s="10" t="s">
         <v>119</v>
       </c>
       <c r="D88" s="69"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="94"/>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="130"/>
       <c r="C89" s="10" t="s">
         <v>84</v>
       </c>
       <c r="D89" s="69"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B90" s="94"/>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="130"/>
       <c r="C90" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D90" s="69"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B91" s="94" t="s">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="130" t="s">
         <v>122</v>
       </c>
       <c r="C91" s="10" t="s">
@@ -4736,29 +4870,29 @@
       </c>
       <c r="D91" s="69"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" s="94"/>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="130"/>
       <c r="C92" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D92" s="69"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B93" s="94"/>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="130"/>
       <c r="C93" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D93" s="69"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="94"/>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="130"/>
       <c r="C94" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D94" s="69"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B95" s="106" t="s">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="77" t="s">
         <v>124</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -4766,15 +4900,15 @@
       </c>
       <c r="D95" s="69"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B96" s="106"/>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="77"/>
       <c r="C96" s="10" t="s">
         <v>127</v>
       </c>
       <c r="D96" s="69"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="106" t="s">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="77" t="s">
         <v>129</v>
       </c>
       <c r="C97" s="10" t="s">
@@ -4782,21 +4916,21 @@
       </c>
       <c r="D97" s="69"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="106"/>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="77"/>
       <c r="C98" s="10" t="s">
         <v>132</v>
       </c>
       <c r="D98" s="69"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="106"/>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="77"/>
       <c r="C99" s="10" t="s">
         <v>133</v>
       </c>
       <c r="D99" s="69"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="67" t="s">
         <v>124</v>
       </c>
@@ -4805,8 +4939,8 @@
       </c>
       <c r="D100" s="69"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101" s="106" t="s">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="77" t="s">
         <v>139</v>
       </c>
       <c r="C101" s="10" t="s">
@@ -4814,15 +4948,15 @@
       </c>
       <c r="D101" s="69"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102" s="106"/>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="77"/>
       <c r="C102" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D102" s="69"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="106" t="s">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="77" t="s">
         <v>129</v>
       </c>
       <c r="C103" s="10" t="s">
@@ -4830,22 +4964,22 @@
       </c>
       <c r="D103" s="69"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="106"/>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="77"/>
       <c r="C104" s="10" t="s">
         <v>146</v>
       </c>
       <c r="D104" s="69"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="106"/>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="77"/>
       <c r="C105" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D105" s="69"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="106" t="s">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="77" t="s">
         <v>148</v>
       </c>
       <c r="C106" s="10" t="s">
@@ -4853,71 +4987,71 @@
       </c>
       <c r="D106" s="69"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="106"/>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="77"/>
       <c r="C107" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D107" s="69"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B108" s="106"/>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="77"/>
       <c r="C108" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D108" s="69"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B109" s="106"/>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="77"/>
       <c r="C109" s="10" t="s">
         <v>118</v>
       </c>
       <c r="D109" s="69"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B110" s="106"/>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="77"/>
       <c r="C110" s="10" t="s">
         <v>119</v>
       </c>
       <c r="D110" s="69"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B111" s="106"/>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="77"/>
       <c r="C111" s="10" t="s">
         <v>84</v>
       </c>
       <c r="D111" s="69"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B112" s="106"/>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="77"/>
       <c r="C112" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D112" s="69"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B113" s="106"/>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="77"/>
       <c r="C113" s="10" t="s">
         <v>150</v>
       </c>
       <c r="D113" s="69"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B114" s="106"/>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="77"/>
       <c r="C114" s="10" t="s">
         <v>151</v>
       </c>
       <c r="D114" s="69"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B115" s="106"/>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="77"/>
       <c r="C115" s="10" t="s">
         <v>152</v>
       </c>
       <c r="D115" s="69"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B116" s="106" t="s">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="77" t="s">
         <v>155</v>
       </c>
       <c r="C116" s="10" t="s">
@@ -4925,21 +5059,21 @@
       </c>
       <c r="D116" s="69"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B117" s="106"/>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="77"/>
       <c r="C117" s="10" t="s">
         <v>158</v>
       </c>
       <c r="D117" s="69"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B118" s="106"/>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="77"/>
       <c r="C118" s="10" t="s">
         <v>159</v>
       </c>
       <c r="D118" s="69"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="67" t="s">
         <v>129</v>
       </c>
@@ -4948,7 +5082,7 @@
       </c>
       <c r="D119" s="69"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="67" t="s">
         <v>164</v>
       </c>
@@ -4957,7 +5091,7 @@
       </c>
       <c r="D120" s="69"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="67" t="s">
         <v>168</v>
       </c>
@@ -4966,8 +5100,8 @@
       </c>
       <c r="D121" s="69"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B122" s="106" t="s">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="77" t="s">
         <v>172</v>
       </c>
       <c r="C122" s="7" t="s">
@@ -4975,15 +5109,15 @@
       </c>
       <c r="D122" s="69"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B123" s="106"/>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="77"/>
       <c r="C123" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D123" s="69"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B124" s="106"/>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="77"/>
       <c r="C124" s="24" t="s">
         <v>176</v>
       </c>
@@ -4991,6 +5125,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B106:B115"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B101:B102"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B70:B83"/>
     <mergeCell ref="B84:B90"/>
@@ -5002,12 +5142,6 @@
     <mergeCell ref="B38:B51"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="B56:B69"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B106:B115"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B101:B102"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
